--- a/Survey Analysis for CHI22.xlsx
+++ b/Survey Analysis for CHI22.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\romathugo\Documents\CHI2022\Devices@Home\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://microsoft-my.sharepoint.com/personal/mpahud_microsoft_com/Documents/SurfaceFleet_Interns_2021/Irene Yuan/Survey Text Analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFF8A391-BD4C-4EFA-8894-14A8BBEF3269}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="139" documentId="14_{10EAC3D4-1180-44B5-A974-D39F75A93181}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E2AC990A-974C-4949-8AEF-D4DAF246F53F}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Basic Participant Info" sheetId="12" r:id="rId1"/>
@@ -9191,7 +9191,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -9827,7 +9827,7 @@
       <selection pane="bottomLeft" activeCell="J104" sqref="J104"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="14.7109375" customWidth="1"/>
     <col min="2" max="3" width="20.7109375" customWidth="1"/>
@@ -9841,7 +9841,7 @@
     <col min="11" max="11" width="109.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="28" customFormat="1">
       <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
@@ -9872,7 +9872,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="27" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" s="27" customFormat="1" ht="15.75" thickBot="1">
       <c r="A2" s="30"/>
       <c r="B2" s="30" t="s">
         <v>1</v>
@@ -9901,7 +9901,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="90">
       <c r="A3" s="5" t="s">
         <v>16</v>
       </c>
@@ -9937,7 +9937,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="45">
       <c r="A4" s="5" t="s">
         <v>25</v>
       </c>
@@ -9973,7 +9973,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="165" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="165">
       <c r="A5" s="5" t="s">
         <v>32</v>
       </c>
@@ -10009,7 +10009,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="90">
       <c r="A6" s="5" t="s">
         <v>39</v>
       </c>
@@ -10045,7 +10045,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="90">
       <c r="A7" s="5" t="s">
         <v>46</v>
       </c>
@@ -10081,7 +10081,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="90">
       <c r="A8" s="5" t="s">
         <v>51</v>
       </c>
@@ -10117,7 +10117,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="75">
       <c r="A9" s="5" t="s">
         <v>55</v>
       </c>
@@ -10153,7 +10153,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="315" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="315">
       <c r="A10" s="5" t="s">
         <v>59</v>
       </c>
@@ -10189,7 +10189,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="75">
       <c r="A11" s="5" t="s">
         <v>65</v>
       </c>
@@ -10225,7 +10225,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="45">
       <c r="A12" s="5" t="s">
         <v>70</v>
       </c>
@@ -10261,7 +10261,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="135" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="135">
       <c r="A13" s="5" t="s">
         <v>75</v>
       </c>
@@ -10297,7 +10297,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="150" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="150">
       <c r="A14" s="5" t="s">
         <v>80</v>
       </c>
@@ -10333,7 +10333,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="60">
       <c r="A15" s="5" t="s">
         <v>85</v>
       </c>
@@ -10369,7 +10369,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="135" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="135">
       <c r="A16" s="5" t="s">
         <v>89</v>
       </c>
@@ -10405,7 +10405,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11">
       <c r="A17" s="5" t="s">
         <v>93</v>
       </c>
@@ -10441,7 +10441,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" ht="45">
       <c r="A18" s="5" t="s">
         <v>97</v>
       </c>
@@ -10477,7 +10477,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" ht="90">
       <c r="A19" s="5" t="s">
         <v>102</v>
       </c>
@@ -10513,7 +10513,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="135" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" ht="135">
       <c r="A20" s="5" t="s">
         <v>106</v>
       </c>
@@ -10549,7 +10549,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" ht="75">
       <c r="A21" s="5" t="s">
         <v>110</v>
       </c>
@@ -10585,7 +10585,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" ht="45">
       <c r="A22" s="5" t="s">
         <v>114</v>
       </c>
@@ -10621,7 +10621,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="165" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" ht="165">
       <c r="A23" s="5" t="s">
         <v>118</v>
       </c>
@@ -10657,7 +10657,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" ht="75">
       <c r="A24" s="5" t="s">
         <v>122</v>
       </c>
@@ -10693,7 +10693,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="150" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" ht="150">
       <c r="A25" s="5" t="s">
         <v>126</v>
       </c>
@@ -10729,7 +10729,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="150" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" ht="150">
       <c r="A26" s="5" t="s">
         <v>130</v>
       </c>
@@ -10765,7 +10765,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11">
       <c r="A27" s="5" t="s">
         <v>135</v>
       </c>
@@ -10799,7 +10799,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" ht="90">
       <c r="A28" s="5" t="s">
         <v>139</v>
       </c>
@@ -10835,7 +10835,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="135" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" ht="135">
       <c r="A29" s="5" t="s">
         <v>142</v>
       </c>
@@ -10871,7 +10871,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" ht="45">
       <c r="A30" s="5" t="s">
         <v>146</v>
       </c>
@@ -10907,7 +10907,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" ht="75">
       <c r="A31" s="5" t="s">
         <v>150</v>
       </c>
@@ -10943,7 +10943,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="150" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" ht="150">
       <c r="A32" s="5" t="s">
         <v>154</v>
       </c>
@@ -10979,7 +10979,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="120" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" ht="120">
       <c r="A33" s="5" t="s">
         <v>159</v>
       </c>
@@ -11015,7 +11015,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="270" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" ht="270">
       <c r="A34" s="5" t="s">
         <v>163</v>
       </c>
@@ -11051,7 +11051,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="270" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" ht="270">
       <c r="A35" s="5" t="s">
         <v>167</v>
       </c>
@@ -11087,7 +11087,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="165" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" ht="165">
       <c r="A36" s="5" t="s">
         <v>171</v>
       </c>
@@ -11123,7 +11123,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="120" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" ht="120">
       <c r="A37" s="5" t="s">
         <v>175</v>
       </c>
@@ -11159,7 +11159,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="150" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" ht="150">
       <c r="A38" s="5" t="s">
         <v>179</v>
       </c>
@@ -11195,7 +11195,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="195" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" ht="195">
       <c r="A39" s="5" t="s">
         <v>184</v>
       </c>
@@ -11231,7 +11231,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" ht="60">
       <c r="A40" s="5" t="s">
         <v>188</v>
       </c>
@@ -11267,7 +11267,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="41" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" ht="75">
       <c r="A41" s="5" t="s">
         <v>191</v>
       </c>
@@ -11303,7 +11303,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="42" spans="1:11" ht="180" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" ht="180">
       <c r="A42" s="5" t="s">
         <v>195</v>
       </c>
@@ -11339,7 +11339,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="43" spans="1:11" ht="195" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" ht="195">
       <c r="A43" s="5" t="s">
         <v>199</v>
       </c>
@@ -11375,7 +11375,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="44" spans="1:11" ht="195" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" ht="195">
       <c r="A44" s="5" t="s">
         <v>203</v>
       </c>
@@ -11411,7 +11411,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="45" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" ht="105">
       <c r="A45" s="5" t="s">
         <v>207</v>
       </c>
@@ -11447,7 +11447,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="46" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" ht="105">
       <c r="A46" s="5" t="s">
         <v>211</v>
       </c>
@@ -11483,7 +11483,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="47" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" ht="75">
       <c r="A47" s="5" t="s">
         <v>215</v>
       </c>
@@ -11519,7 +11519,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="48" spans="1:11" ht="120" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" ht="120">
       <c r="A48" s="5" t="s">
         <v>219</v>
       </c>
@@ -11555,7 +11555,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="49" spans="1:11" ht="135" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" ht="135">
       <c r="A49" s="5" t="s">
         <v>223</v>
       </c>
@@ -11591,7 +11591,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="50" spans="1:11" ht="195" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" ht="195">
       <c r="A50" s="5" t="s">
         <v>227</v>
       </c>
@@ -11627,7 +11627,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="51" spans="1:11" ht="150" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" ht="150">
       <c r="A51" s="5" t="s">
         <v>231</v>
       </c>
@@ -11663,7 +11663,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="52" spans="1:11" ht="225" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" ht="225">
       <c r="A52" s="5" t="s">
         <v>235</v>
       </c>
@@ -11699,7 +11699,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="53" spans="1:11" ht="180" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" ht="180">
       <c r="A53" s="5" t="s">
         <v>239</v>
       </c>
@@ -11735,7 +11735,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="54" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" ht="90">
       <c r="A54" s="5" t="s">
         <v>243</v>
       </c>
@@ -11771,7 +11771,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="55" spans="1:11" ht="195" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" ht="195">
       <c r="A55" s="5" t="s">
         <v>247</v>
       </c>
@@ -11807,7 +11807,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="56" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" ht="105">
       <c r="A56" s="5" t="s">
         <v>251</v>
       </c>
@@ -11843,7 +11843,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="57" spans="1:11" ht="330" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" ht="330">
       <c r="A57" s="5" t="s">
         <v>255</v>
       </c>
@@ -11879,7 +11879,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="58" spans="1:11" ht="210" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" ht="210">
       <c r="A58" s="5" t="s">
         <v>259</v>
       </c>
@@ -11915,7 +11915,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="59" spans="1:11" ht="405" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" ht="405">
       <c r="A59" s="5" t="s">
         <v>263</v>
       </c>
@@ -11951,7 +11951,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="60" spans="1:11" ht="225" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" ht="225">
       <c r="A60" s="5" t="s">
         <v>267</v>
       </c>
@@ -11987,7 +11987,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="61" spans="1:11" ht="150" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" ht="150">
       <c r="A61" s="5" t="s">
         <v>271</v>
       </c>
@@ -12023,7 +12023,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="62" spans="1:11" ht="225" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" ht="225">
       <c r="A62" s="5" t="s">
         <v>275</v>
       </c>
@@ -12059,7 +12059,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="63" spans="1:11" ht="240" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" ht="240">
       <c r="A63" s="5" t="s">
         <v>278</v>
       </c>
@@ -12095,7 +12095,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="64" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" ht="105">
       <c r="A64" s="5" t="s">
         <v>281</v>
       </c>
@@ -12131,7 +12131,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="65" spans="1:11" ht="120" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" ht="120">
       <c r="A65" s="5" t="s">
         <v>284</v>
       </c>
@@ -12167,7 +12167,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="66" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" ht="105">
       <c r="A66" s="5" t="s">
         <v>288</v>
       </c>
@@ -12203,7 +12203,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="67" spans="1:11" ht="240" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" ht="240">
       <c r="A67" s="5" t="s">
         <v>292</v>
       </c>
@@ -12239,7 +12239,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="68" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" ht="90">
       <c r="A68" s="5" t="s">
         <v>297</v>
       </c>
@@ -12275,7 +12275,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="69" spans="1:11" ht="120" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" ht="120">
       <c r="A69" s="5" t="s">
         <v>301</v>
       </c>
@@ -12311,7 +12311,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="70" spans="1:11" ht="405" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" ht="405">
       <c r="A70" s="5" t="s">
         <v>305</v>
       </c>
@@ -12347,7 +12347,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="71" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" ht="105">
       <c r="A71" s="5" t="s">
         <v>309</v>
       </c>
@@ -12383,7 +12383,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="72" spans="1:11" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" ht="409.5">
       <c r="A72" s="5" t="s">
         <v>313</v>
       </c>
@@ -12419,7 +12419,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="73" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" ht="75">
       <c r="A73" s="5" t="s">
         <v>317</v>
       </c>
@@ -12455,7 +12455,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="74" spans="1:11" ht="120" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" ht="120">
       <c r="A74" s="5" t="s">
         <v>321</v>
       </c>
@@ -12491,7 +12491,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="75" spans="1:11" ht="120" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" ht="120">
       <c r="A75" s="5" t="s">
         <v>324</v>
       </c>
@@ -12527,7 +12527,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="76" spans="1:11" ht="225" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" ht="225">
       <c r="A76" s="5" t="s">
         <v>328</v>
       </c>
@@ -12563,7 +12563,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="77" spans="1:11" ht="270" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" ht="270">
       <c r="A77" s="5" t="s">
         <v>332</v>
       </c>
@@ -12599,7 +12599,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="78" spans="1:11" ht="150" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" ht="150">
       <c r="A78" s="5" t="s">
         <v>336</v>
       </c>
@@ -12635,7 +12635,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="79" spans="1:11" ht="165" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" ht="165">
       <c r="A79" s="5" t="s">
         <v>339</v>
       </c>
@@ -12671,7 +12671,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="80" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" ht="60">
       <c r="A80" s="5" t="s">
         <v>343</v>
       </c>
@@ -12707,7 +12707,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="81" spans="1:11" ht="210" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" ht="210">
       <c r="A81" s="5" t="s">
         <v>347</v>
       </c>
@@ -12743,7 +12743,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="82" spans="1:11" ht="150" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" ht="150">
       <c r="A82" s="5" t="s">
         <v>351</v>
       </c>
@@ -12779,7 +12779,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="83" spans="1:11" ht="315" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" ht="315">
       <c r="A83" s="5" t="s">
         <v>355</v>
       </c>
@@ -12815,7 +12815,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="84" spans="1:11" ht="135" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" ht="135">
       <c r="A84" s="5" t="s">
         <v>359</v>
       </c>
@@ -12851,7 +12851,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="85" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" ht="60">
       <c r="A85" s="5" t="s">
         <v>363</v>
       </c>
@@ -12887,7 +12887,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="86" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" ht="75">
       <c r="A86" s="5" t="s">
         <v>367</v>
       </c>
@@ -12923,7 +12923,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="87" spans="1:11" ht="195" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" ht="195">
       <c r="A87" s="5" t="s">
         <v>371</v>
       </c>
@@ -12959,7 +12959,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="88" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" ht="90">
       <c r="A88" s="5" t="s">
         <v>375</v>
       </c>
@@ -12995,7 +12995,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="89" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" ht="75">
       <c r="A89" s="5" t="s">
         <v>378</v>
       </c>
@@ -13031,7 +13031,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="90" spans="1:11" ht="150" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" ht="150">
       <c r="A90" s="5" t="s">
         <v>382</v>
       </c>
@@ -13067,7 +13067,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="91" spans="1:11" ht="225" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" ht="225">
       <c r="A91" s="5" t="s">
         <v>386</v>
       </c>
@@ -13103,7 +13103,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="92" spans="1:11" ht="285" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" ht="285">
       <c r="A92" s="5" t="s">
         <v>390</v>
       </c>
@@ -13139,7 +13139,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="93" spans="1:11" ht="135" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" ht="135">
       <c r="A93" s="5" t="s">
         <v>394</v>
       </c>
@@ -13175,7 +13175,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="94" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" ht="105">
       <c r="A94" s="5" t="s">
         <v>398</v>
       </c>
@@ -13211,7 +13211,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="95" spans="1:11" ht="165" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" ht="165">
       <c r="A95" s="5" t="s">
         <v>402</v>
       </c>
@@ -13247,7 +13247,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="96" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" ht="60">
       <c r="A96" s="5" t="s">
         <v>406</v>
       </c>
@@ -13283,7 +13283,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="97" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" ht="90">
       <c r="A97" s="5" t="s">
         <v>410</v>
       </c>
@@ -13319,7 +13319,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="98" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" ht="105">
       <c r="A98" s="5" t="s">
         <v>414</v>
       </c>
@@ -13355,7 +13355,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="99" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" ht="90">
       <c r="A99" s="5" t="s">
         <v>418</v>
       </c>
@@ -13391,7 +13391,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11">
       <c r="A100" s="5"/>
       <c r="B100" s="5"/>
       <c r="C100" s="7"/>
@@ -13404,7 +13404,7 @@
       <c r="J100" s="6"/>
       <c r="K100" s="6"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11">
       <c r="A101" s="5"/>
       <c r="B101" s="5"/>
       <c r="C101" s="7"/>
@@ -13417,7 +13417,7 @@
       <c r="J101" s="6"/>
       <c r="K101" s="6"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11">
       <c r="A103" s="15" t="s">
         <v>422</v>
       </c>
@@ -13440,7 +13440,7 @@
       </c>
       <c r="J103" s="46"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11">
       <c r="A104" s="16" t="s">
         <v>425</v>
       </c>
@@ -13464,7 +13464,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11">
       <c r="C105" s="5"/>
       <c r="F105" s="13"/>
       <c r="G105" s="10" t="s">
@@ -13479,7 +13479,7 @@
       </c>
       <c r="J105" s="46"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11">
       <c r="A106" s="17" t="s">
         <v>429</v>
       </c>
@@ -13494,7 +13494,7 @@
         <v>8.247422680412371E-2</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11">
       <c r="A107" s="12"/>
       <c r="B107" t="s">
         <v>431</v>
@@ -13510,7 +13510,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11">
       <c r="A108" s="12"/>
       <c r="B108" t="s">
         <v>433</v>
@@ -13523,7 +13523,7 @@
         <v>0.25773195876288657</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11">
       <c r="A109" s="12"/>
       <c r="B109" t="s">
         <v>434</v>
@@ -13536,7 +13536,7 @@
         <v>0.19587628865979381</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11">
       <c r="A110" s="12"/>
       <c r="B110" t="s">
         <v>435</v>
@@ -13549,7 +13549,7 @@
         <v>0.17525773195876287</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11">
       <c r="A111" s="13"/>
       <c r="B111" s="10" t="s">
         <v>436</v>
@@ -13562,10 +13562,10 @@
         <v>4.1237113402061855E-2</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11">
       <c r="C112" s="5"/>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4">
       <c r="A113" s="17" t="s">
         <v>437</v>
       </c>
@@ -13580,7 +13580,7 @@
         <v>0.1134020618556701</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4">
       <c r="A114" s="12"/>
       <c r="B114" t="s">
         <v>18</v>
@@ -13593,7 +13593,7 @@
         <v>0.82474226804123707</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4">
       <c r="A115" s="12"/>
       <c r="B115" t="s">
         <v>438</v>
@@ -13606,7 +13606,7 @@
         <v>5.1546391752577317E-2</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4">
       <c r="A116" s="13"/>
       <c r="B116" s="10" t="s">
         <v>439</v>
@@ -13619,10 +13619,10 @@
         <v>1.0309278350515464E-2</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4">
       <c r="C117" s="5"/>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4">
       <c r="A118" s="18" t="s">
         <v>440</v>
       </c>
@@ -13631,37 +13631,37 @@
       </c>
       <c r="C118" s="5"/>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4">
       <c r="B119" t="s">
         <v>441</v>
       </c>
       <c r="C119" s="5"/>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4">
       <c r="B120" t="s">
         <v>442</v>
       </c>
       <c r="C120" s="5"/>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4">
       <c r="B121" t="s">
         <v>443</v>
       </c>
       <c r="C121" s="5"/>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4">
       <c r="B122" t="s">
         <v>444</v>
       </c>
       <c r="C122" s="5"/>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4">
       <c r="B123" t="s">
         <v>445</v>
       </c>
       <c r="C123" s="5"/>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:4">
       <c r="A127" s="17" t="s">
         <v>446</v>
       </c>
@@ -13676,7 +13676,7 @@
         <v>6.1855670103092786E-2</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:4">
       <c r="A128" s="12"/>
       <c r="B128" t="s">
         <v>82</v>
@@ -13689,7 +13689,7 @@
         <v>1.0309278350515464E-2</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:4">
       <c r="A129" s="12"/>
       <c r="B129" t="s">
         <v>20</v>
@@ -13702,7 +13702,7 @@
         <v>0.18556701030927836</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:4">
       <c r="A130" s="12"/>
       <c r="B130" t="s">
         <v>42</v>
@@ -13715,7 +13715,7 @@
         <v>0.71134020618556704</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:4">
       <c r="A131" s="13"/>
       <c r="B131" s="10" t="s">
         <v>27</v>
@@ -13744,7 +13744,7 @@
       <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="70.28515625" customWidth="1"/>
     <col min="3" max="3" width="16.42578125" hidden="1" customWidth="1"/>
@@ -13754,7 +13754,7 @@
     <col min="8" max="9" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="28" customFormat="1">
       <c r="A1" s="53" t="s">
         <v>0</v>
       </c>
@@ -13771,7 +13771,7 @@
       <c r="F1" s="37"/>
       <c r="G1" s="37"/>
     </row>
-    <row r="2" spans="1:7" s="27" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" s="27" customFormat="1" ht="15.75" thickBot="1">
       <c r="A2" s="54"/>
       <c r="B2" s="33" t="s">
         <v>450</v>
@@ -13792,7 +13792,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="180" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="180">
       <c r="A3" s="31" t="s">
         <v>89</v>
       </c>
@@ -13815,7 +13815,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="30">
       <c r="A4" s="31" t="s">
         <v>191</v>
       </c>
@@ -13836,7 +13836,7 @@
       </c>
       <c r="G4" s="36"/>
     </row>
-    <row r="5" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="45">
       <c r="A5" s="31" t="s">
         <v>414</v>
       </c>
@@ -13859,7 +13859,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="105">
       <c r="A6" s="31" t="s">
         <v>39</v>
       </c>
@@ -13882,7 +13882,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="90">
       <c r="A7" s="31" t="s">
         <v>199</v>
       </c>
@@ -13905,7 +13905,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="90">
       <c r="A8" s="31" t="s">
         <v>278</v>
       </c>
@@ -13928,7 +13928,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7">
       <c r="A9" s="31" t="s">
         <v>235</v>
       </c>
@@ -13951,7 +13951,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="300" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="300">
       <c r="A10" s="31" t="s">
         <v>371</v>
       </c>
@@ -13972,7 +13972,7 @@
       </c>
       <c r="G10" s="36"/>
     </row>
-    <row r="11" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="75">
       <c r="A11" s="31" t="s">
         <v>219</v>
       </c>
@@ -13995,7 +13995,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="30">
       <c r="A12" s="31" t="s">
         <v>284</v>
       </c>
@@ -14016,7 +14016,7 @@
       </c>
       <c r="G12" s="36"/>
     </row>
-    <row r="13" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="45">
       <c r="A13" s="31" t="s">
         <v>150</v>
       </c>
@@ -14039,7 +14039,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="45">
       <c r="A14" s="31" t="s">
         <v>394</v>
       </c>
@@ -14060,7 +14060,7 @@
       </c>
       <c r="G14" s="36"/>
     </row>
-    <row r="15" spans="1:7" ht="285" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="285">
       <c r="A15" s="31" t="s">
         <v>142</v>
       </c>
@@ -14083,7 +14083,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="105">
       <c r="A16" s="31" t="s">
         <v>410</v>
       </c>
@@ -14106,7 +14106,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="135" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="135">
       <c r="A17" s="31" t="s">
         <v>394</v>
       </c>
@@ -14129,7 +14129,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="90">
       <c r="A18" s="31" t="s">
         <v>278</v>
       </c>
@@ -14150,7 +14150,7 @@
       </c>
       <c r="G18" s="36"/>
     </row>
-    <row r="19" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="105">
       <c r="A19" s="31" t="s">
         <v>328</v>
       </c>
@@ -14171,7 +14171,7 @@
       </c>
       <c r="G19" s="36"/>
     </row>
-    <row r="20" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="105">
       <c r="A20" s="31" t="s">
         <v>332</v>
       </c>
@@ -14192,7 +14192,7 @@
       </c>
       <c r="G20" s="36"/>
     </row>
-    <row r="21" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="60">
       <c r="A21" s="31" t="s">
         <v>85</v>
       </c>
@@ -14213,7 +14213,7 @@
       </c>
       <c r="G21" s="36"/>
     </row>
-    <row r="22" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="105">
       <c r="A22" s="31" t="s">
         <v>267</v>
       </c>
@@ -14234,7 +14234,7 @@
       </c>
       <c r="G22" s="36"/>
     </row>
-    <row r="23" spans="1:7" ht="240" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="240">
       <c r="A23" s="31" t="s">
         <v>305</v>
       </c>
@@ -14257,7 +14257,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="255" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="255">
       <c r="A24" s="31" t="s">
         <v>171</v>
       </c>
@@ -14280,7 +14280,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="165" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="165">
       <c r="A25" s="31" t="s">
         <v>39</v>
       </c>
@@ -14301,7 +14301,7 @@
       </c>
       <c r="G25" s="36"/>
     </row>
-    <row r="26" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="75">
       <c r="A26" s="31" t="s">
         <v>288</v>
       </c>
@@ -14324,7 +14324,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="135" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="135">
       <c r="A27" s="31" t="s">
         <v>46</v>
       </c>
@@ -14345,7 +14345,7 @@
       </c>
       <c r="G27" s="36"/>
     </row>
-    <row r="28" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" ht="60">
       <c r="A28" s="31" t="s">
         <v>97</v>
       </c>
@@ -14366,7 +14366,7 @@
       </c>
       <c r="G28" s="36"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7">
       <c r="A29" s="31" t="s">
         <v>263</v>
       </c>
@@ -14387,7 +14387,7 @@
       </c>
       <c r="G29" s="36"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7">
       <c r="A30" s="31" t="s">
         <v>288</v>
       </c>
@@ -14408,7 +14408,7 @@
       </c>
       <c r="G30" s="36"/>
     </row>
-    <row r="31" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" ht="120">
       <c r="A31" s="31" t="s">
         <v>332</v>
       </c>
@@ -14431,7 +14431,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" ht="45">
       <c r="A32" s="31" t="s">
         <v>297</v>
       </c>
@@ -14454,7 +14454,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="150" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" ht="150">
       <c r="A33" s="31" t="s">
         <v>328</v>
       </c>
@@ -14477,7 +14477,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" ht="105">
       <c r="A34" s="31" t="s">
         <v>25</v>
       </c>
@@ -14500,7 +14500,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="135" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="135">
       <c r="A35" s="31" t="s">
         <v>114</v>
       </c>
@@ -14523,7 +14523,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7">
       <c r="A36" s="31" t="s">
         <v>211</v>
       </c>
@@ -14544,7 +14544,7 @@
       </c>
       <c r="G36" s="36"/>
     </row>
-    <row r="37" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="120">
       <c r="A37" s="31" t="s">
         <v>375</v>
       </c>
@@ -14565,7 +14565,7 @@
       </c>
       <c r="G37" s="36"/>
     </row>
-    <row r="38" spans="1:7" ht="180" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="180">
       <c r="A38" s="31" t="s">
         <v>122</v>
       </c>
@@ -14586,7 +14586,7 @@
       </c>
       <c r="G38" s="36"/>
     </row>
-    <row r="39" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" ht="30">
       <c r="A39" s="31" t="s">
         <v>378</v>
       </c>
@@ -14609,7 +14609,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="165" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" ht="165">
       <c r="A40" s="31" t="s">
         <v>32</v>
       </c>
@@ -14632,7 +14632,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" ht="120">
       <c r="A41" s="31" t="s">
         <v>118</v>
       </c>
@@ -14653,7 +14653,7 @@
       </c>
       <c r="G41" s="36"/>
     </row>
-    <row r="42" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" ht="60">
       <c r="A42" s="31" t="s">
         <v>271</v>
       </c>
@@ -14674,7 +14674,7 @@
       </c>
       <c r="G42" s="36"/>
     </row>
-    <row r="43" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" ht="45">
       <c r="A43" s="31" t="s">
         <v>85</v>
       </c>
@@ -14695,7 +14695,7 @@
       </c>
       <c r="G43" s="36"/>
     </row>
-    <row r="44" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" ht="90">
       <c r="A44" s="31" t="s">
         <v>167</v>
       </c>
@@ -14716,7 +14716,7 @@
       </c>
       <c r="G44" s="36"/>
     </row>
-    <row r="45" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" ht="45">
       <c r="A45" s="31" t="s">
         <v>167</v>
       </c>
@@ -14737,7 +14737,7 @@
       </c>
       <c r="G45" s="36"/>
     </row>
-    <row r="46" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" ht="30">
       <c r="A46" s="31" t="s">
         <v>263</v>
       </c>
@@ -14758,7 +14758,7 @@
       </c>
       <c r="G46" s="36"/>
     </row>
-    <row r="47" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" ht="30">
       <c r="A47" s="31" t="s">
         <v>288</v>
       </c>
@@ -14779,7 +14779,7 @@
       </c>
       <c r="G47" s="36"/>
     </row>
-    <row r="48" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" ht="30">
       <c r="A48" s="31" t="s">
         <v>297</v>
       </c>
@@ -14800,7 +14800,7 @@
       </c>
       <c r="G48" s="36"/>
     </row>
-    <row r="49" spans="1:7" ht="165" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" ht="165">
       <c r="A49" s="31" t="s">
         <v>332</v>
       </c>
@@ -14821,7 +14821,7 @@
       </c>
       <c r="G49" s="36"/>
     </row>
-    <row r="50" spans="1:7" ht="210" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" ht="210">
       <c r="A50" s="31" t="s">
         <v>371</v>
       </c>
@@ -14844,7 +14844,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="270" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" ht="270">
       <c r="A51" s="31" t="s">
         <v>382</v>
       </c>
@@ -14865,7 +14865,7 @@
       </c>
       <c r="G51" s="36"/>
     </row>
-    <row r="52" spans="1:7" ht="150" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" ht="150">
       <c r="A52" s="31" t="s">
         <v>386</v>
       </c>
@@ -14886,7 +14886,7 @@
       </c>
       <c r="G52" s="36"/>
     </row>
-    <row r="53" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" ht="120">
       <c r="A53" s="31" t="s">
         <v>110</v>
       </c>
@@ -14907,7 +14907,7 @@
       </c>
       <c r="G53" s="36"/>
     </row>
-    <row r="54" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" ht="30">
       <c r="A54" s="31" t="s">
         <v>70</v>
       </c>
@@ -14930,7 +14930,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" ht="105">
       <c r="A55" s="31" t="s">
         <v>188</v>
       </c>
@@ -14953,7 +14953,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="150" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" ht="150">
       <c r="A56" s="31" t="s">
         <v>207</v>
       </c>
@@ -14974,7 +14974,7 @@
       </c>
       <c r="G56" s="36"/>
     </row>
-    <row r="57" spans="1:7" ht="285" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" ht="285">
       <c r="A57" s="31" t="s">
         <v>259</v>
       </c>
@@ -14997,7 +14997,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" ht="60">
       <c r="A58" s="31" t="s">
         <v>414</v>
       </c>
@@ -15018,7 +15018,7 @@
       </c>
       <c r="G58" s="36"/>
     </row>
-    <row r="59" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" ht="75">
       <c r="A59" s="31" t="s">
         <v>339</v>
       </c>
@@ -15041,7 +15041,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" ht="90">
       <c r="A60" s="31" t="s">
         <v>114</v>
       </c>
@@ -15064,7 +15064,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" ht="90">
       <c r="A61" s="31" t="s">
         <v>188</v>
       </c>
@@ -15087,7 +15087,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="135" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" ht="135">
       <c r="A62" s="31" t="s">
         <v>367</v>
       </c>
@@ -15108,7 +15108,7 @@
       </c>
       <c r="G62" s="36"/>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7">
       <c r="A63" s="31" t="s">
         <v>243</v>
       </c>
@@ -15129,7 +15129,7 @@
       </c>
       <c r="G63" s="36"/>
     </row>
-    <row r="64" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" ht="75">
       <c r="A64" s="31" t="s">
         <v>223</v>
       </c>
@@ -15150,7 +15150,7 @@
       </c>
       <c r="G64" s="36"/>
     </row>
-    <row r="65" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" ht="75">
       <c r="A65" s="31" t="s">
         <v>363</v>
       </c>
@@ -15171,7 +15171,7 @@
       </c>
       <c r="G65" s="36"/>
     </row>
-    <row r="66" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" ht="75">
       <c r="A66" s="31" t="s">
         <v>199</v>
       </c>
@@ -15194,7 +15194,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" ht="120">
       <c r="A67" s="31" t="s">
         <v>159</v>
       </c>
@@ -15217,7 +15217,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" ht="90">
       <c r="A68" s="31" t="s">
         <v>199</v>
       </c>
@@ -15238,7 +15238,7 @@
       </c>
       <c r="G68" s="36"/>
     </row>
-    <row r="69" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" ht="120">
       <c r="A69" s="31" t="s">
         <v>255</v>
       </c>
@@ -15261,7 +15261,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="70" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" ht="60">
       <c r="A70" s="31" t="s">
         <v>255</v>
       </c>
@@ -15282,7 +15282,7 @@
       </c>
       <c r="G70" s="36"/>
     </row>
-    <row r="71" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" ht="75">
       <c r="A71" s="31" t="s">
         <v>139</v>
       </c>
@@ -15303,7 +15303,7 @@
       </c>
       <c r="G71" s="36"/>
     </row>
-    <row r="72" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" ht="60">
       <c r="A72" s="31" t="s">
         <v>367</v>
       </c>
@@ -15324,7 +15324,7 @@
       </c>
       <c r="G72" s="36"/>
     </row>
-    <row r="73" spans="1:7" ht="165" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" ht="165">
       <c r="A73" s="31" t="s">
         <v>382</v>
       </c>
@@ -15347,7 +15347,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="74" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" ht="105">
       <c r="A74" s="31" t="s">
         <v>227</v>
       </c>
@@ -15368,7 +15368,7 @@
       </c>
       <c r="G74" s="36"/>
     </row>
-    <row r="75" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" ht="75">
       <c r="A75" s="31" t="s">
         <v>363</v>
       </c>
@@ -15389,7 +15389,7 @@
       </c>
       <c r="G75" s="36"/>
     </row>
-    <row r="76" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" ht="45">
       <c r="A76" s="31" t="s">
         <v>251</v>
       </c>
@@ -15410,7 +15410,7 @@
       </c>
       <c r="G76" s="36"/>
     </row>
-    <row r="77" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" ht="75">
       <c r="A77" s="31" t="s">
         <v>305</v>
       </c>
@@ -15433,7 +15433,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="78" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" ht="30">
       <c r="A78" s="31" t="s">
         <v>70</v>
       </c>
@@ -15454,7 +15454,7 @@
       </c>
       <c r="G78" s="36"/>
     </row>
-    <row r="79" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" ht="60">
       <c r="A79" s="31" t="s">
         <v>139</v>
       </c>
@@ -15477,7 +15477,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="80" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" ht="30">
       <c r="A80" s="31" t="s">
         <v>343</v>
       </c>
@@ -15498,7 +15498,7 @@
       </c>
       <c r="G80" s="36"/>
     </row>
-    <row r="81" spans="1:7" ht="300" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" ht="300">
       <c r="A81" s="31" t="s">
         <v>267</v>
       </c>
@@ -15521,7 +15521,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="82" spans="1:7" ht="195" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" ht="195">
       <c r="A82" s="31" t="s">
         <v>130</v>
       </c>
@@ -15542,7 +15542,7 @@
       </c>
       <c r="G82" s="36"/>
     </row>
-    <row r="83" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" ht="90">
       <c r="A83" s="31" t="s">
         <v>219</v>
       </c>
@@ -15565,7 +15565,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="84" spans="1:7" ht="180" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" ht="180">
       <c r="A84" s="31" t="s">
         <v>227</v>
       </c>
@@ -15586,7 +15586,7 @@
       </c>
       <c r="G84" s="36"/>
     </row>
-    <row r="85" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" ht="75">
       <c r="A85" s="31" t="s">
         <v>406</v>
       </c>
@@ -15609,7 +15609,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="86" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" ht="60">
       <c r="A86" s="31" t="s">
         <v>347</v>
       </c>
@@ -15630,7 +15630,7 @@
       </c>
       <c r="G86" s="36"/>
     </row>
-    <row r="87" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" ht="90">
       <c r="A87" s="31" t="s">
         <v>239</v>
       </c>
@@ -15651,7 +15651,7 @@
       </c>
       <c r="G87" s="36"/>
     </row>
-    <row r="88" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" ht="90">
       <c r="A88" s="31" t="s">
         <v>267</v>
       </c>
@@ -15674,7 +15674,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="89" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" ht="60">
       <c r="A89" s="31" t="s">
         <v>118</v>
       </c>
@@ -15695,7 +15695,7 @@
       </c>
       <c r="G89" s="36"/>
     </row>
-    <row r="90" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" ht="75">
       <c r="A90" s="31" t="s">
         <v>223</v>
       </c>
@@ -15718,7 +15718,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="91" spans="1:7" ht="135" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" ht="135">
       <c r="A91" s="31" t="s">
         <v>398</v>
       </c>
@@ -15739,7 +15739,7 @@
       </c>
       <c r="G91" s="36"/>
     </row>
-    <row r="92" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" ht="90">
       <c r="A92" s="31" t="s">
         <v>203</v>
       </c>
@@ -15760,7 +15760,7 @@
       </c>
       <c r="G92" s="36"/>
     </row>
-    <row r="93" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" ht="90">
       <c r="A93" s="31" t="s">
         <v>203</v>
       </c>
@@ -15781,7 +15781,7 @@
       </c>
       <c r="G93" s="36"/>
     </row>
-    <row r="94" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" ht="75">
       <c r="A94" s="31" t="s">
         <v>203</v>
       </c>
@@ -15802,7 +15802,7 @@
       </c>
       <c r="G94" s="36"/>
     </row>
-    <row r="95" spans="1:7" ht="210" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" ht="210">
       <c r="A95" s="31" t="s">
         <v>355</v>
       </c>
@@ -15825,7 +15825,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="96" spans="1:7" ht="180" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" ht="180">
       <c r="A96" s="31" t="s">
         <v>355</v>
       </c>
@@ -15848,7 +15848,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="97" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" ht="75">
       <c r="A97" s="31" t="s">
         <v>235</v>
       </c>
@@ -15871,7 +15871,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="98" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" ht="45">
       <c r="A98" s="31" t="s">
         <v>284</v>
       </c>
@@ -15894,7 +15894,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="99" spans="1:7" ht="180" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" ht="180">
       <c r="A99" s="31" t="s">
         <v>122</v>
       </c>
@@ -15915,7 +15915,7 @@
       </c>
       <c r="G99" s="36"/>
     </row>
-    <row r="100" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" ht="90">
       <c r="A100" s="31" t="s">
         <v>406</v>
       </c>
@@ -15938,7 +15938,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="101" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" ht="75">
       <c r="A101" s="31" t="s">
         <v>418</v>
       </c>
@@ -15959,7 +15959,7 @@
       </c>
       <c r="G101" s="36"/>
     </row>
-    <row r="102" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" ht="90">
       <c r="A102" s="31" t="s">
         <v>305</v>
       </c>
@@ -15982,7 +15982,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="103" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" ht="60">
       <c r="A103" s="31" t="s">
         <v>191</v>
       </c>
@@ -16001,7 +16001,7 @@
       <c r="F103" s="36"/>
       <c r="G103" s="36"/>
     </row>
-    <row r="104" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" ht="90">
       <c r="A104" s="31" t="s">
         <v>126</v>
       </c>
@@ -16024,7 +16024,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="105" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" ht="75">
       <c r="A105" s="31" t="s">
         <v>85</v>
       </c>
@@ -16045,7 +16045,7 @@
       </c>
       <c r="G105" s="36"/>
     </row>
-    <row r="106" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" ht="120">
       <c r="A106" s="31" t="s">
         <v>110</v>
       </c>
@@ -16068,7 +16068,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="107" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" ht="90">
       <c r="A107" s="31" t="s">
         <v>195</v>
       </c>
@@ -16089,7 +16089,7 @@
       </c>
       <c r="G107" s="36"/>
     </row>
-    <row r="108" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" ht="90">
       <c r="A108" s="31" t="s">
         <v>339</v>
       </c>
@@ -16112,7 +16112,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="109" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" ht="60">
       <c r="A109" s="31" t="s">
         <v>93</v>
       </c>
@@ -16135,7 +16135,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="110" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" ht="45">
       <c r="A110" s="31" t="s">
         <v>55</v>
       </c>
@@ -16156,7 +16156,7 @@
       </c>
       <c r="G110" s="36"/>
     </row>
-    <row r="111" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" ht="30">
       <c r="A111" s="31" t="s">
         <v>65</v>
       </c>
@@ -16177,7 +16177,7 @@
       </c>
       <c r="G111" s="36"/>
     </row>
-    <row r="112" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" ht="75">
       <c r="A112" s="31" t="s">
         <v>32</v>
       </c>
@@ -16198,7 +16198,7 @@
       </c>
       <c r="G112" s="36"/>
     </row>
-    <row r="113" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" ht="45">
       <c r="A113" s="31" t="s">
         <v>179</v>
       </c>
@@ -16221,7 +16221,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="114" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" ht="90">
       <c r="A114" s="31" t="s">
         <v>75</v>
       </c>
@@ -16244,7 +16244,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="115" spans="1:7" ht="195" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" ht="195">
       <c r="A115" s="31" t="s">
         <v>154</v>
       </c>
@@ -16265,7 +16265,7 @@
       </c>
       <c r="G115" s="36"/>
     </row>
-    <row r="116" spans="1:7" ht="150" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" ht="150">
       <c r="A116" s="31" t="s">
         <v>146</v>
       </c>
@@ -16288,7 +16288,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="117" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" ht="60">
       <c r="A117" s="31" t="s">
         <v>139</v>
       </c>
@@ -16309,7 +16309,7 @@
       </c>
       <c r="G117" s="36"/>
     </row>
-    <row r="118" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" ht="30">
       <c r="A118" s="31" t="s">
         <v>55</v>
       </c>
@@ -16330,7 +16330,7 @@
       </c>
       <c r="G118" s="36"/>
     </row>
-    <row r="119" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" ht="75">
       <c r="A119" s="31" t="s">
         <v>118</v>
       </c>
@@ -16353,7 +16353,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="120" spans="1:7" ht="180" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" ht="180">
       <c r="A120" s="31" t="s">
         <v>163</v>
       </c>
@@ -16376,7 +16376,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="121" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" ht="90">
       <c r="A121" s="31" t="s">
         <v>324</v>
       </c>
@@ -16399,7 +16399,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="122" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" ht="120">
       <c r="A122" s="31" t="s">
         <v>263</v>
       </c>
@@ -16422,7 +16422,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="123" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7" ht="90">
       <c r="A123" s="31" t="s">
         <v>367</v>
       </c>
@@ -16445,7 +16445,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="124" spans="1:7" ht="360" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7" ht="360">
       <c r="A124" s="31" t="s">
         <v>259</v>
       </c>
@@ -16468,7 +16468,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="125" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7" ht="60">
       <c r="A125" s="31" t="s">
         <v>32</v>
       </c>
@@ -16489,7 +16489,7 @@
       </c>
       <c r="G125" s="36"/>
     </row>
-    <row r="126" spans="1:7" ht="135" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" ht="135">
       <c r="A126" s="31" t="s">
         <v>46</v>
       </c>
@@ -16512,7 +16512,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="127" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7" ht="45">
       <c r="A127" s="31" t="s">
         <v>402</v>
       </c>
@@ -16535,7 +16535,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="128" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7" ht="30">
       <c r="A128" s="31" t="s">
         <v>251</v>
       </c>
@@ -16556,7 +16556,7 @@
       </c>
       <c r="G128" s="36"/>
     </row>
-    <row r="129" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" ht="75">
       <c r="A129" s="31" t="s">
         <v>163</v>
       </c>
@@ -16577,7 +16577,7 @@
       </c>
       <c r="G129" s="36"/>
     </row>
-    <row r="130" spans="1:7" ht="195" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7" ht="195">
       <c r="A130" s="31" t="s">
         <v>247</v>
       </c>
@@ -16598,7 +16598,7 @@
       </c>
       <c r="G130" s="36"/>
     </row>
-    <row r="131" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7" ht="60">
       <c r="A131" s="31" t="s">
         <v>297</v>
       </c>
@@ -16619,7 +16619,7 @@
       </c>
       <c r="G131" s="36"/>
     </row>
-    <row r="132" spans="1:7" ht="150" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" ht="150">
       <c r="A132" s="31" t="s">
         <v>106</v>
       </c>
@@ -16642,7 +16642,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="133" spans="1:7" ht="165" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7" ht="165">
       <c r="A133" s="31" t="s">
         <v>195</v>
       </c>
@@ -16665,7 +16665,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="134" spans="1:7" ht="165" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7" ht="165">
       <c r="A134" s="31" t="s">
         <v>122</v>
       </c>
@@ -16688,7 +16688,7 @@
         <v>796</v>
       </c>
     </row>
-    <row r="135" spans="1:7" ht="195" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7" ht="195">
       <c r="A135" s="31" t="s">
         <v>130</v>
       </c>
@@ -16711,7 +16711,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="136" spans="1:7" ht="150" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7" ht="150">
       <c r="A136" s="31" t="s">
         <v>130</v>
       </c>
@@ -16732,7 +16732,7 @@
       </c>
       <c r="G136" s="36"/>
     </row>
-    <row r="137" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7" ht="75">
       <c r="A137" s="31" t="s">
         <v>235</v>
       </c>
@@ -16755,7 +16755,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="138" spans="1:7" ht="165" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7" ht="165">
       <c r="A138" s="31" t="s">
         <v>386</v>
       </c>
@@ -16778,7 +16778,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="139" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7" ht="409.5">
       <c r="A139" s="31" t="s">
         <v>171</v>
       </c>
@@ -16801,7 +16801,7 @@
         <v>811</v>
       </c>
     </row>
-    <row r="140" spans="1:7" ht="210" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7" ht="210">
       <c r="A140" s="31" t="s">
         <v>142</v>
       </c>
@@ -16824,7 +16824,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="141" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7" ht="45">
       <c r="A141" s="31" t="s">
         <v>390</v>
       </c>
@@ -16847,7 +16847,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="142" spans="1:7" ht="300" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7" ht="300">
       <c r="A142" s="31" t="s">
         <v>313</v>
       </c>
@@ -16870,7 +16870,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="143" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7" ht="45">
       <c r="A143" s="31" t="s">
         <v>378</v>
       </c>
@@ -16893,7 +16893,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="144" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7" ht="120">
       <c r="A144" s="31" t="s">
         <v>142</v>
       </c>
@@ -16914,7 +16914,7 @@
       </c>
       <c r="G144" s="36"/>
     </row>
-    <row r="145" spans="1:7" ht="135" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7" ht="135">
       <c r="A145" s="31" t="s">
         <v>207</v>
       </c>
@@ -16937,7 +16937,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="146" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7" ht="45">
       <c r="A146" s="31" t="s">
         <v>93</v>
       </c>
@@ -16958,7 +16958,7 @@
       </c>
       <c r="G146" s="36"/>
     </row>
-    <row r="147" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7" ht="75">
       <c r="A147" s="31" t="s">
         <v>378</v>
       </c>
@@ -16981,7 +16981,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="148" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7" ht="105">
       <c r="A148" s="31" t="s">
         <v>215</v>
       </c>
@@ -17002,7 +17002,7 @@
       </c>
       <c r="G148" s="36"/>
     </row>
-    <row r="149" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7" ht="30">
       <c r="A149" s="31" t="s">
         <v>271</v>
       </c>
@@ -17023,7 +17023,7 @@
       </c>
       <c r="G149" s="36"/>
     </row>
-    <row r="150" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7" ht="45">
       <c r="A150" s="31" t="s">
         <v>375</v>
       </c>
@@ -17046,7 +17046,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="151" spans="1:7" ht="255" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7" ht="255">
       <c r="A151" s="31" t="s">
         <v>195</v>
       </c>
@@ -17069,7 +17069,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="152" spans="1:7" ht="270" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7" ht="270">
       <c r="A152" s="31" t="s">
         <v>301</v>
       </c>
@@ -17092,7 +17092,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="153" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7" ht="30">
       <c r="A153" s="31" t="s">
         <v>275</v>
       </c>
@@ -17115,7 +17115,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="154" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7" ht="90">
       <c r="A154" s="31" t="s">
         <v>406</v>
       </c>
@@ -17138,7 +17138,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="155" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7" ht="60">
       <c r="A155" s="31" t="s">
         <v>375</v>
       </c>
@@ -17161,7 +17161,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="156" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7" ht="45">
       <c r="A156" s="31" t="s">
         <v>150</v>
       </c>
@@ -17184,7 +17184,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="157" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:7" ht="30">
       <c r="A157" s="31" t="s">
         <v>70</v>
       </c>
@@ -17203,7 +17203,7 @@
       <c r="F157" s="36"/>
       <c r="G157" s="36"/>
     </row>
-    <row r="158" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:7" ht="30">
       <c r="A158" s="31" t="s">
         <v>93</v>
       </c>
@@ -17224,7 +17224,7 @@
       </c>
       <c r="G158" s="36"/>
     </row>
-    <row r="159" spans="1:7" ht="360" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:7" ht="360">
       <c r="A159" s="31" t="s">
         <v>336</v>
       </c>
@@ -17247,7 +17247,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="160" spans="1:7" ht="210" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:7" ht="210">
       <c r="A160" s="31" t="s">
         <v>171</v>
       </c>
@@ -17270,7 +17270,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="161" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:7" ht="120">
       <c r="A161" s="31" t="s">
         <v>114</v>
       </c>
@@ -17291,7 +17291,7 @@
       </c>
       <c r="G161" s="36"/>
     </row>
-    <row r="162" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:7" ht="75">
       <c r="A162" s="31" t="s">
         <v>46</v>
       </c>
@@ -17312,7 +17312,7 @@
       </c>
       <c r="G162" s="36"/>
     </row>
-    <row r="163" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:7" ht="75">
       <c r="A163" s="31" t="s">
         <v>80</v>
       </c>
@@ -17333,7 +17333,7 @@
       </c>
       <c r="G163" s="36"/>
     </row>
-    <row r="164" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:7" ht="75">
       <c r="A164" s="31" t="s">
         <v>16</v>
       </c>
@@ -17354,7 +17354,7 @@
       </c>
       <c r="G164" s="36"/>
     </row>
-    <row r="165" spans="1:7" ht="165" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:7" ht="165">
       <c r="A165" s="31" t="s">
         <v>382</v>
       </c>
@@ -17375,7 +17375,7 @@
       </c>
       <c r="G165" s="36"/>
     </row>
-    <row r="166" spans="1:7" ht="165" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:7" ht="165">
       <c r="A166" s="31" t="s">
         <v>126</v>
       </c>
@@ -17398,7 +17398,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="167" spans="1:7" ht="135" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:7" ht="135">
       <c r="A167" s="31" t="s">
         <v>80</v>
       </c>
@@ -17421,7 +17421,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="168" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:7" ht="30">
       <c r="A168" s="31" t="s">
         <v>390</v>
       </c>
@@ -17444,7 +17444,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="169" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:7" ht="45">
       <c r="A169" s="31" t="s">
         <v>390</v>
       </c>
@@ -17467,7 +17467,7 @@
         <v>890</v>
       </c>
     </row>
-    <row r="170" spans="1:7" ht="135" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:7" ht="135">
       <c r="A170" s="31" t="s">
         <v>110</v>
       </c>
@@ -17488,7 +17488,7 @@
       </c>
       <c r="G170" s="36"/>
     </row>
-    <row r="171" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:7" ht="120">
       <c r="A171" s="31" t="s">
         <v>150</v>
       </c>
@@ -17509,7 +17509,7 @@
       </c>
       <c r="G171" s="36"/>
     </row>
-    <row r="173" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:7" ht="90">
       <c r="A173" s="31" t="s">
         <v>402</v>
       </c>
@@ -17530,7 +17530,7 @@
       </c>
       <c r="G173" s="36"/>
     </row>
-    <row r="174" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:7" ht="75">
       <c r="A174" s="31" t="s">
         <v>247</v>
       </c>
@@ -17551,7 +17551,7 @@
       </c>
       <c r="G174" s="36"/>
     </row>
-    <row r="175" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:7" ht="30">
       <c r="A175" s="31" t="s">
         <v>231</v>
       </c>
@@ -17572,7 +17572,7 @@
       </c>
       <c r="G175" s="36"/>
     </row>
-    <row r="176" spans="1:7" ht="150" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:7" ht="150">
       <c r="A176" s="31" t="s">
         <v>89</v>
       </c>
@@ -17593,7 +17593,7 @@
       </c>
       <c r="G176" s="36"/>
     </row>
-    <row r="177" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:7" ht="30">
       <c r="A177" s="31" t="s">
         <v>347</v>
       </c>
@@ -17614,7 +17614,7 @@
       </c>
       <c r="G177" s="36"/>
     </row>
-    <row r="178" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:7" ht="45">
       <c r="A178" s="31" t="s">
         <v>179</v>
       </c>
@@ -17637,7 +17637,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="179" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:7" ht="75">
       <c r="A179" s="31" t="s">
         <v>359</v>
       </c>
@@ -17658,7 +17658,7 @@
       </c>
       <c r="G179" s="36"/>
     </row>
-    <row r="180" spans="1:7" ht="315" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:7" ht="315">
       <c r="A180" s="31" t="s">
         <v>355</v>
       </c>
@@ -17679,7 +17679,7 @@
       </c>
       <c r="G180" s="36"/>
     </row>
-    <row r="181" spans="1:7" ht="195" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:7" ht="195">
       <c r="A181" s="31" t="s">
         <v>184</v>
       </c>
@@ -17700,7 +17700,7 @@
       </c>
       <c r="G181" s="36"/>
     </row>
-    <row r="182" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:7" ht="60">
       <c r="A182" s="31" t="s">
         <v>179</v>
       </c>
@@ -17721,7 +17721,7 @@
       </c>
       <c r="G182" s="36"/>
     </row>
-    <row r="183" spans="1:7" ht="150" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:7" ht="150">
       <c r="A183" s="31" t="s">
         <v>227</v>
       </c>
@@ -17744,7 +17744,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="184" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:7" ht="75">
       <c r="A184" s="31" t="s">
         <v>402</v>
       </c>
@@ -17765,7 +17765,7 @@
       </c>
       <c r="G184" s="36"/>
     </row>
-    <row r="185" spans="1:7" ht="285" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:7" ht="285">
       <c r="A185" s="31" t="s">
         <v>259</v>
       </c>
@@ -17786,7 +17786,7 @@
       </c>
       <c r="G185" s="36"/>
     </row>
-    <row r="186" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:7" ht="60">
       <c r="A186" s="31" t="s">
         <v>410</v>
       </c>
@@ -17807,7 +17807,7 @@
       </c>
       <c r="G186" s="36"/>
     </row>
-    <row r="187" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:7" ht="45">
       <c r="A187" s="31" t="s">
         <v>271</v>
       </c>
@@ -17828,7 +17828,7 @@
       </c>
       <c r="G187" s="36"/>
     </row>
-    <row r="188" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:7" ht="90">
       <c r="A188" s="31" t="s">
         <v>159</v>
       </c>
@@ -17849,7 +17849,7 @@
       </c>
       <c r="G188" s="36"/>
     </row>
-    <row r="189" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:7" ht="90">
       <c r="A189" s="31" t="s">
         <v>324</v>
       </c>
@@ -17870,7 +17870,7 @@
       </c>
       <c r="G189" s="36"/>
     </row>
-    <row r="190" spans="1:7" ht="150" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:7" ht="150">
       <c r="A190" s="31" t="s">
         <v>313</v>
       </c>
@@ -17891,7 +17891,7 @@
       </c>
       <c r="G190" s="36"/>
     </row>
-    <row r="191" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:7" ht="45">
       <c r="A191" s="31" t="s">
         <v>154</v>
       </c>
@@ -17912,7 +17912,7 @@
       </c>
       <c r="G191" s="36"/>
     </row>
-    <row r="192" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:7" ht="60">
       <c r="A192" s="31" t="s">
         <v>231</v>
       </c>
@@ -17933,7 +17933,7 @@
       </c>
       <c r="G192" s="36"/>
     </row>
-    <row r="193" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:7" ht="105">
       <c r="A193" s="31" t="s">
         <v>146</v>
       </c>
@@ -17954,7 +17954,7 @@
       </c>
       <c r="G193" s="36"/>
     </row>
-    <row r="194" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:7" ht="120">
       <c r="A194" s="31" t="s">
         <v>359</v>
       </c>
@@ -17977,7 +17977,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="195" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:7" ht="90">
       <c r="A195" s="31" t="s">
         <v>16</v>
       </c>
@@ -17998,7 +17998,7 @@
       </c>
       <c r="G195" s="36"/>
     </row>
-    <row r="196" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:7" ht="30">
       <c r="A196" s="31" t="s">
         <v>175</v>
       </c>
@@ -18019,7 +18019,7 @@
       </c>
       <c r="G196" s="36"/>
     </row>
-    <row r="197" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:7" ht="120">
       <c r="A197" s="31" t="s">
         <v>16</v>
       </c>
@@ -18042,7 +18042,7 @@
         <v>949</v>
       </c>
     </row>
-    <row r="198" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:7" ht="60">
       <c r="A198" s="31" t="s">
         <v>339</v>
       </c>
@@ -18065,7 +18065,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="199" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:7" ht="90">
       <c r="A199" s="31" t="s">
         <v>159</v>
       </c>
@@ -18086,7 +18086,7 @@
       </c>
       <c r="G199" s="36"/>
     </row>
-    <row r="200" spans="1:7" ht="255" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:7" ht="255">
       <c r="A200" s="31" t="s">
         <v>175</v>
       </c>
@@ -18107,7 +18107,7 @@
       </c>
       <c r="G200" s="36"/>
     </row>
-    <row r="201" spans="1:7" ht="210" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:7" ht="210">
       <c r="A201" s="31" t="s">
         <v>359</v>
       </c>
@@ -18128,7 +18128,7 @@
       </c>
       <c r="G201" s="36"/>
     </row>
-    <row r="202" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:7" ht="105">
       <c r="A202" s="31" t="s">
         <v>188</v>
       </c>
@@ -18149,7 +18149,7 @@
       </c>
       <c r="G202" s="36"/>
     </row>
-    <row r="203" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:7" ht="90">
       <c r="A203" s="31" t="s">
         <v>301</v>
       </c>
@@ -18172,7 +18172,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="204" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:7" ht="60">
       <c r="A204" s="31" t="s">
         <v>65</v>
       </c>
@@ -18193,7 +18193,7 @@
       </c>
       <c r="G204" s="36"/>
     </row>
-    <row r="205" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:7" ht="90">
       <c r="A205" s="31" t="s">
         <v>59</v>
       </c>
@@ -18214,7 +18214,7 @@
       </c>
       <c r="G205" s="36"/>
     </row>
-    <row r="206" spans="1:7" ht="225" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:7" ht="225">
       <c r="A206" s="31" t="s">
         <v>89</v>
       </c>
@@ -18235,7 +18235,7 @@
       </c>
       <c r="G206" s="36"/>
     </row>
-    <row r="207" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:7" ht="120">
       <c r="A207" s="31" t="s">
         <v>106</v>
       </c>
@@ -18258,7 +18258,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="208" spans="1:7" ht="165" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:7" ht="165">
       <c r="A208" s="31" t="s">
         <v>39</v>
       </c>
@@ -18281,7 +18281,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="209" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:7" ht="90">
       <c r="A209" s="31" t="s">
         <v>275</v>
       </c>
@@ -18304,7 +18304,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="210" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:7" ht="120">
       <c r="A210" s="31" t="s">
         <v>102</v>
       </c>
@@ -18325,7 +18325,7 @@
       </c>
       <c r="G210" s="36"/>
     </row>
-    <row r="211" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:7" ht="60">
       <c r="A211" s="31" t="s">
         <v>351</v>
       </c>
@@ -18344,7 +18344,7 @@
       <c r="F211" s="36"/>
       <c r="G211" s="36"/>
     </row>
-    <row r="212" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:7" ht="90">
       <c r="A212" s="31" t="s">
         <v>25</v>
       </c>
@@ -18365,7 +18365,7 @@
       </c>
       <c r="G212" s="36"/>
     </row>
-    <row r="213" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:7" ht="105">
       <c r="A213" s="31" t="s">
         <v>25</v>
       </c>
@@ -18386,7 +18386,7 @@
       </c>
       <c r="G213" s="36"/>
     </row>
-    <row r="214" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:7" ht="30">
       <c r="A214" s="31" t="s">
         <v>231</v>
       </c>
@@ -18407,7 +18407,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="215" spans="1:7" ht="150" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:7" ht="150">
       <c r="A215" s="31" t="s">
         <v>313</v>
       </c>
@@ -18426,7 +18426,7 @@
       <c r="F215" s="36"/>
       <c r="G215" s="36"/>
     </row>
-    <row r="216" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:7" ht="75">
       <c r="A216" s="31" t="s">
         <v>351</v>
       </c>
@@ -18445,7 +18445,7 @@
       <c r="F216" s="36"/>
       <c r="G216" s="36"/>
     </row>
-    <row r="217" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:7" ht="45">
       <c r="A217" s="31" t="s">
         <v>351</v>
       </c>
@@ -18466,7 +18466,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="218" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:7" ht="60">
       <c r="A218" s="31" t="s">
         <v>363</v>
       </c>
@@ -18485,7 +18485,7 @@
       <c r="F218" s="36"/>
       <c r="G218" s="36"/>
     </row>
-    <row r="219" spans="1:7" ht="135" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:7" ht="135">
       <c r="A219" s="31" t="s">
         <v>398</v>
       </c>
@@ -18504,7 +18504,7 @@
       <c r="F219" s="36"/>
       <c r="G219" s="36"/>
     </row>
-    <row r="220" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:7" ht="120">
       <c r="A220" s="31" t="s">
         <v>126</v>
       </c>
@@ -18527,7 +18527,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="221" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:7" ht="60">
       <c r="A221" s="31" t="s">
         <v>191</v>
       </c>
@@ -18548,7 +18548,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="222" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:7" ht="90">
       <c r="A222" s="31" t="s">
         <v>59</v>
       </c>
@@ -18567,7 +18567,7 @@
       <c r="F222" s="36"/>
       <c r="G222" s="36"/>
     </row>
-    <row r="223" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:7" ht="75">
       <c r="A223" s="31" t="s">
         <v>59</v>
       </c>
@@ -18586,7 +18586,7 @@
       <c r="F223" s="36"/>
       <c r="G223" s="36"/>
     </row>
-    <row r="224" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:7" ht="75">
       <c r="A224" s="31" t="s">
         <v>65</v>
       </c>
@@ -18605,7 +18605,7 @@
       <c r="F224" s="36"/>
       <c r="G224" s="36"/>
     </row>
-    <row r="225" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:7" ht="105">
       <c r="A225" s="31" t="s">
         <v>146</v>
       </c>
@@ -18624,7 +18624,7 @@
       <c r="F225" s="36"/>
       <c r="G225" s="36"/>
     </row>
-    <row r="226" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:7" ht="30">
       <c r="A226" s="31" t="s">
         <v>154</v>
       </c>
@@ -18643,7 +18643,7 @@
       <c r="F226" s="36"/>
       <c r="G226" s="36"/>
     </row>
-    <row r="227" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:7" ht="45">
       <c r="A227" s="31" t="s">
         <v>163</v>
       </c>
@@ -18662,7 +18662,7 @@
       <c r="F227" s="36"/>
       <c r="G227" s="36"/>
     </row>
-    <row r="228" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:7" ht="75">
       <c r="A228" s="31" t="s">
         <v>175</v>
       </c>
@@ -18683,7 +18683,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="229" spans="1:7" ht="255" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:7" ht="255">
       <c r="A229" s="31" t="s">
         <v>207</v>
       </c>
@@ -18704,7 +18704,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="230" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:7" ht="105">
       <c r="A230" s="31" t="s">
         <v>215</v>
       </c>
@@ -18723,7 +18723,7 @@
       <c r="F230" s="36"/>
       <c r="G230" s="36"/>
     </row>
-    <row r="231" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:7" ht="105">
       <c r="A231" s="31" t="s">
         <v>215</v>
       </c>
@@ -18742,7 +18742,7 @@
       <c r="F231" s="36"/>
       <c r="G231" s="36"/>
     </row>
-    <row r="232" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:7" ht="45">
       <c r="A232" s="31" t="s">
         <v>239</v>
       </c>
@@ -18761,7 +18761,7 @@
       <c r="F232" s="36"/>
       <c r="G232" s="36"/>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:7">
       <c r="A233" s="31" t="s">
         <v>243</v>
       </c>
@@ -18780,7 +18780,7 @@
       <c r="F233" s="36"/>
       <c r="G233" s="36"/>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:7">
       <c r="A234" s="31" t="s">
         <v>275</v>
       </c>
@@ -18799,7 +18799,7 @@
       <c r="F234" s="36"/>
       <c r="G234" s="36"/>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:7">
       <c r="A235" s="31" t="s">
         <v>281</v>
       </c>
@@ -18818,7 +18818,7 @@
       <c r="F235" s="36"/>
       <c r="G235" s="36"/>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:7">
       <c r="A236" s="31" t="s">
         <v>281</v>
       </c>
@@ -18837,7 +18837,7 @@
       <c r="F236" s="36"/>
       <c r="G236" s="36"/>
     </row>
-    <row r="237" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:7" ht="30">
       <c r="A237" s="31" t="s">
         <v>292</v>
       </c>
@@ -18856,7 +18856,7 @@
       <c r="F237" s="36"/>
       <c r="G237" s="36"/>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:7">
       <c r="A238" s="31" t="s">
         <v>292</v>
       </c>
@@ -18875,7 +18875,7 @@
       <c r="F238" s="36"/>
       <c r="G238" s="36"/>
     </row>
-    <row r="239" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:7" ht="30">
       <c r="A239" s="31" t="s">
         <v>292</v>
       </c>
@@ -18894,7 +18894,7 @@
       <c r="F239" s="36"/>
       <c r="G239" s="36"/>
     </row>
-    <row r="240" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:7" ht="45">
       <c r="A240" s="31" t="s">
         <v>309</v>
       </c>
@@ -18913,7 +18913,7 @@
       <c r="F240" s="36"/>
       <c r="G240" s="36"/>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:7">
       <c r="A241" s="31" t="s">
         <v>309</v>
       </c>
@@ -18932,7 +18932,7 @@
       <c r="F241" s="36"/>
       <c r="G241" s="36"/>
     </row>
-    <row r="242" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:7" ht="75">
       <c r="A242" s="31" t="s">
         <v>317</v>
       </c>
@@ -18951,7 +18951,7 @@
       <c r="F242" s="36"/>
       <c r="G242" s="36"/>
     </row>
-    <row r="243" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:7" ht="45">
       <c r="A243" s="31" t="s">
         <v>55</v>
       </c>
@@ -18970,7 +18970,7 @@
       <c r="F243" s="36"/>
       <c r="G243" s="36"/>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:7">
       <c r="A244" s="31" t="s">
         <v>243</v>
       </c>
@@ -18989,7 +18989,7 @@
       <c r="F244" s="36"/>
       <c r="G244" s="36"/>
     </row>
-    <row r="245" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:7" ht="105">
       <c r="A245" s="31" t="s">
         <v>281</v>
       </c>
@@ -19008,7 +19008,7 @@
       <c r="F245" s="36"/>
       <c r="G245" s="36"/>
     </row>
-    <row r="246" spans="1:7" ht="180" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:7" ht="180">
       <c r="A246" s="31" t="s">
         <v>301</v>
       </c>
@@ -19029,7 +19029,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="247" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:7" ht="60">
       <c r="A247" s="31" t="s">
         <v>317</v>
       </c>
@@ -19048,7 +19048,7 @@
       <c r="F247" s="36"/>
       <c r="G247" s="36"/>
     </row>
-    <row r="248" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:7" ht="30">
       <c r="A248" s="31" t="s">
         <v>317</v>
       </c>
@@ -19067,7 +19067,7 @@
       <c r="F248" s="36"/>
       <c r="G248" s="36"/>
     </row>
-    <row r="249" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:7" ht="120">
       <c r="A249" s="31" t="s">
         <v>324</v>
       </c>
@@ -19086,7 +19086,7 @@
       <c r="F249" s="36"/>
       <c r="G249" s="36"/>
     </row>
-    <row r="250" spans="1:7" ht="165" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:7" ht="165">
       <c r="A250" s="31" t="s">
         <v>328</v>
       </c>
@@ -19105,7 +19105,7 @@
       <c r="F250" s="36"/>
       <c r="G250" s="36"/>
     </row>
-    <row r="251" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:7" ht="60">
       <c r="A251" s="31" t="s">
         <v>371</v>
       </c>
@@ -19124,7 +19124,7 @@
       <c r="F251" s="36"/>
       <c r="G251" s="36"/>
     </row>
-    <row r="252" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:7" ht="75">
       <c r="A252" s="31" t="s">
         <v>394</v>
       </c>
@@ -19143,7 +19143,7 @@
       <c r="F252" s="36"/>
       <c r="G252" s="36"/>
     </row>
-    <row r="253" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:7" ht="60">
       <c r="A253" s="31" t="s">
         <v>410</v>
       </c>
@@ -19162,7 +19162,7 @@
       <c r="F253" s="36"/>
       <c r="G253" s="36"/>
     </row>
-    <row r="254" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:7" ht="60">
       <c r="A254" s="31" t="s">
         <v>102</v>
       </c>
@@ -19179,7 +19179,7 @@
       <c r="F254" s="36"/>
       <c r="G254" s="36"/>
     </row>
-    <row r="255" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:7" ht="60">
       <c r="A255" s="31" t="s">
         <v>184</v>
       </c>
@@ -19219,7 +19219,7 @@
       <selection pane="bottomLeft" activeCell="A39" sqref="A39:XFD39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="70.28515625" customWidth="1"/>
     <col min="3" max="3" width="16.42578125" customWidth="1"/>
@@ -19231,7 +19231,7 @@
     <col min="9" max="10" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="28" customFormat="1">
       <c r="A1" s="53" t="s">
         <v>0</v>
       </c>
@@ -19249,7 +19249,7 @@
       <c r="G1" s="37"/>
       <c r="H1" s="37"/>
     </row>
-    <row r="2" spans="1:8" s="27" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" s="27" customFormat="1" ht="15.75" thickBot="1">
       <c r="A2" s="54"/>
       <c r="B2" s="33" t="s">
         <v>450</v>
@@ -19273,7 +19273,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="180" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="180">
       <c r="A3" s="31" t="s">
         <v>89</v>
       </c>
@@ -19297,7 +19297,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="105">
       <c r="A4" s="31" t="s">
         <v>267</v>
       </c>
@@ -19319,7 +19319,7 @@
       <c r="G4" s="36"/>
       <c r="H4" s="36"/>
     </row>
-    <row r="5" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="120">
       <c r="A5" s="31" t="s">
         <v>332</v>
       </c>
@@ -19343,7 +19343,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="45">
       <c r="A6" s="31" t="s">
         <v>297</v>
       </c>
@@ -19367,7 +19367,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="135" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="135">
       <c r="A7" s="31" t="s">
         <v>114</v>
       </c>
@@ -19391,7 +19391,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="165" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="165">
       <c r="A8" s="31" t="s">
         <v>32</v>
       </c>
@@ -19415,7 +19415,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="60">
       <c r="A9" s="31" t="s">
         <v>271</v>
       </c>
@@ -19437,7 +19437,7 @@
       <c r="G9" s="36"/>
       <c r="H9" s="36"/>
     </row>
-    <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="30">
       <c r="A10" s="31" t="s">
         <v>297</v>
       </c>
@@ -19459,7 +19459,7 @@
       <c r="G10" s="36"/>
       <c r="H10" s="36"/>
     </row>
-    <row r="11" spans="1:8" ht="210" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="210">
       <c r="A11" s="31" t="s">
         <v>371</v>
       </c>
@@ -19483,7 +19483,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="270" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="270">
       <c r="A12" s="31" t="s">
         <v>382</v>
       </c>
@@ -19505,7 +19505,7 @@
       <c r="G12" s="36"/>
       <c r="H12" s="36"/>
     </row>
-    <row r="13" spans="1:8" ht="150" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="150">
       <c r="A13" s="31" t="s">
         <v>386</v>
       </c>
@@ -19527,7 +19527,7 @@
       <c r="G13" s="36"/>
       <c r="H13" s="36"/>
     </row>
-    <row r="14" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="90">
       <c r="A14" s="31" t="s">
         <v>114</v>
       </c>
@@ -19551,7 +19551,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="120">
       <c r="A15" s="31" t="s">
         <v>255</v>
       </c>
@@ -19575,7 +19575,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="60">
       <c r="A16" s="31" t="s">
         <v>255</v>
       </c>
@@ -19597,7 +19597,7 @@
       <c r="G16" s="36"/>
       <c r="H16" s="36"/>
     </row>
-    <row r="17" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="45">
       <c r="A17" s="31" t="s">
         <v>251</v>
       </c>
@@ -19619,7 +19619,7 @@
       <c r="G17" s="36"/>
       <c r="H17" s="36"/>
     </row>
-    <row r="18" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="30">
       <c r="A18" s="31" t="s">
         <v>343</v>
       </c>
@@ -19641,7 +19641,7 @@
       <c r="G18" s="36"/>
       <c r="H18" s="36"/>
     </row>
-    <row r="19" spans="1:8" ht="300" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="300">
       <c r="A19" s="31" t="s">
         <v>267</v>
       </c>
@@ -19665,7 +19665,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="60">
       <c r="A20" s="31" t="s">
         <v>347</v>
       </c>
@@ -19687,7 +19687,7 @@
       <c r="G20" s="36"/>
       <c r="H20" s="36"/>
     </row>
-    <row r="21" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="90">
       <c r="A21" s="31" t="s">
         <v>267</v>
       </c>
@@ -19711,7 +19711,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="135" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="135">
       <c r="A22" s="31" t="s">
         <v>398</v>
       </c>
@@ -19733,7 +19733,7 @@
       <c r="G22" s="36"/>
       <c r="H22" s="36"/>
     </row>
-    <row r="23" spans="1:8" ht="210" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="210">
       <c r="A23" s="31" t="s">
         <v>355</v>
       </c>
@@ -19757,7 +19757,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="180" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="180">
       <c r="A24" s="31" t="s">
         <v>355</v>
       </c>
@@ -19781,7 +19781,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" ht="120">
       <c r="A25" s="31" t="s">
         <v>110</v>
       </c>
@@ -19805,7 +19805,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" ht="90">
       <c r="A26" s="31" t="s">
         <v>195</v>
       </c>
@@ -19827,7 +19827,7 @@
       <c r="G26" s="36"/>
       <c r="H26" s="36"/>
     </row>
-    <row r="27" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" ht="60">
       <c r="A27" s="31" t="s">
         <v>297</v>
       </c>
@@ -19849,7 +19849,7 @@
       <c r="G27" s="36"/>
       <c r="H27" s="36"/>
     </row>
-    <row r="28" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" ht="75">
       <c r="A28" s="31" t="s">
         <v>235</v>
       </c>
@@ -19873,7 +19873,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="300" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" ht="300">
       <c r="A29" s="31" t="s">
         <v>313</v>
       </c>
@@ -19897,7 +19897,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" ht="105">
       <c r="A30" s="31" t="s">
         <v>215</v>
       </c>
@@ -19919,7 +19919,7 @@
       <c r="G30" s="36"/>
       <c r="H30" s="36"/>
     </row>
-    <row r="31" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" ht="120">
       <c r="A31" s="31" t="s">
         <v>114</v>
       </c>
@@ -19941,7 +19941,7 @@
       <c r="G31" s="36"/>
       <c r="H31" s="36"/>
     </row>
-    <row r="32" spans="1:8" ht="165" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" ht="165">
       <c r="A32" s="31" t="s">
         <v>126</v>
       </c>
@@ -19965,7 +19965,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="150" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" ht="150">
       <c r="A33" s="31" t="s">
         <v>89</v>
       </c>
@@ -19987,7 +19987,7 @@
       <c r="G33" s="36"/>
       <c r="H33" s="36"/>
     </row>
-    <row r="34" spans="1:8" ht="150" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" ht="150">
       <c r="A34" s="31" t="s">
         <v>227</v>
       </c>
@@ -20011,7 +20011,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" ht="60">
       <c r="A35" s="31" t="s">
         <v>65</v>
       </c>
@@ -20033,7 +20033,7 @@
       <c r="G35" s="36"/>
       <c r="H35" s="36"/>
     </row>
-    <row r="36" spans="1:8" ht="135" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" ht="135">
       <c r="A36" s="31" t="s">
         <v>398</v>
       </c>
@@ -20053,7 +20053,7 @@
       <c r="G36" s="36"/>
       <c r="H36" s="36"/>
     </row>
-    <row r="37" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" ht="75">
       <c r="A37" s="31" t="s">
         <v>65</v>
       </c>
@@ -20073,7 +20073,7 @@
       <c r="G37" s="36"/>
       <c r="H37" s="36"/>
     </row>
-    <row r="38" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" ht="105">
       <c r="A38" s="31" t="s">
         <v>215</v>
       </c>
@@ -20093,7 +20093,7 @@
       <c r="G38" s="36"/>
       <c r="H38" s="36"/>
     </row>
-    <row r="39" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" ht="105">
       <c r="A39" s="31" t="s">
         <v>215</v>
       </c>
@@ -20131,7 +20131,7 @@
       <selection pane="bottomLeft" activeCell="B99" sqref="B99"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="63.85546875" customWidth="1"/>
     <col min="3" max="3" width="53" customWidth="1"/>
@@ -20155,7 +20155,7 @@
     <col min="21" max="21" width="77.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" s="28" customFormat="1">
       <c r="A1" s="41" t="s">
         <v>0</v>
       </c>
@@ -20214,7 +20214,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="2" spans="1:21" s="27" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" s="27" customFormat="1" ht="15.75" thickBot="1">
       <c r="A2" s="40"/>
       <c r="B2" s="40" t="s">
         <v>1062</v>
@@ -20277,7 +20277,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" ht="75">
       <c r="A3" s="44" t="s">
         <v>16</v>
       </c>
@@ -20340,7 +20340,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" ht="30">
       <c r="A4" s="44" t="s">
         <v>25</v>
       </c>
@@ -20403,7 +20403,7 @@
         <v>1098</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" ht="30">
       <c r="A5" s="44" t="s">
         <v>32</v>
       </c>
@@ -20466,7 +20466,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="135" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" ht="135">
       <c r="A6" s="44" t="s">
         <v>39</v>
       </c>
@@ -20529,7 +20529,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="255" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" ht="255">
       <c r="A7" s="44" t="s">
         <v>46</v>
       </c>
@@ -20592,7 +20592,7 @@
         <v>1119</v>
       </c>
     </row>
-    <row r="8" spans="1:21" ht="60" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" ht="60">
       <c r="A8" s="44" t="s">
         <v>51</v>
       </c>
@@ -20653,7 +20653,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="9" spans="1:21" ht="60" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" ht="60">
       <c r="A9" s="44" t="s">
         <v>55</v>
       </c>
@@ -20716,7 +20716,7 @@
         <v>1131</v>
       </c>
     </row>
-    <row r="10" spans="1:21" ht="90" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" ht="90">
       <c r="A10" s="44" t="s">
         <v>59</v>
       </c>
@@ -20779,7 +20779,7 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="105" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" ht="105">
       <c r="A11" s="44" t="s">
         <v>65</v>
       </c>
@@ -20842,7 +20842,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="12" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" ht="30">
       <c r="A12" s="44" t="s">
         <v>70</v>
       </c>
@@ -20905,7 +20905,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="13" spans="1:21" ht="75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" ht="75">
       <c r="A13" s="44" t="s">
         <v>75</v>
       </c>
@@ -20968,7 +20968,7 @@
         <v>1154</v>
       </c>
     </row>
-    <row r="14" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" ht="45">
       <c r="A14" s="44" t="s">
         <v>80</v>
       </c>
@@ -21033,7 +21033,7 @@
         <v>1161</v>
       </c>
     </row>
-    <row r="15" spans="1:21" ht="60" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" ht="60">
       <c r="A15" s="44" t="s">
         <v>85</v>
       </c>
@@ -21096,7 +21096,7 @@
         <v>1167</v>
       </c>
     </row>
-    <row r="16" spans="1:21" ht="195" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" ht="195">
       <c r="A16" s="44" t="s">
         <v>89</v>
       </c>
@@ -21159,7 +21159,7 @@
         <v>1175</v>
       </c>
     </row>
-    <row r="17" spans="1:21" ht="90" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" ht="90">
       <c r="A17" s="44" t="s">
         <v>93</v>
       </c>
@@ -21222,7 +21222,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="18" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" ht="45">
       <c r="A18" s="44" t="s">
         <v>97</v>
       </c>
@@ -21285,7 +21285,7 @@
         <v>1187</v>
       </c>
     </row>
-    <row r="19" spans="1:21" ht="120" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" ht="120">
       <c r="A19" s="44" t="s">
         <v>102</v>
       </c>
@@ -21348,7 +21348,7 @@
         <v>1193</v>
       </c>
     </row>
-    <row r="20" spans="1:21" ht="135" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" ht="135">
       <c r="A20" s="44" t="s">
         <v>106</v>
       </c>
@@ -21411,7 +21411,7 @@
         <v>1199</v>
       </c>
     </row>
-    <row r="21" spans="1:21" ht="75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" ht="75">
       <c r="A21" s="44" t="s">
         <v>110</v>
       </c>
@@ -21474,7 +21474,7 @@
         <v>1205</v>
       </c>
     </row>
-    <row r="22" spans="1:21" ht="75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" ht="75">
       <c r="A22" s="44" t="s">
         <v>114</v>
       </c>
@@ -21537,7 +21537,7 @@
         <v>1214</v>
       </c>
     </row>
-    <row r="23" spans="1:21" ht="105" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" ht="105">
       <c r="A23" s="44" t="s">
         <v>118</v>
       </c>
@@ -21600,7 +21600,7 @@
         <v>1220</v>
       </c>
     </row>
-    <row r="24" spans="1:21" ht="75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" ht="75">
       <c r="A24" s="44" t="s">
         <v>122</v>
       </c>
@@ -21663,7 +21663,7 @@
         <v>1226</v>
       </c>
     </row>
-    <row r="25" spans="1:21" ht="360" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" ht="360">
       <c r="A25" s="44" t="s">
         <v>126</v>
       </c>
@@ -21726,7 +21726,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="26" spans="1:21" ht="120" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" ht="120">
       <c r="A26" s="44" t="s">
         <v>130</v>
       </c>
@@ -21791,7 +21791,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="27" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" ht="45">
       <c r="A27" s="44" t="s">
         <v>135</v>
       </c>
@@ -21850,7 +21850,7 @@
         <v>1244</v>
       </c>
     </row>
-    <row r="28" spans="1:21" ht="90" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" ht="90">
       <c r="A28" s="44" t="s">
         <v>139</v>
       </c>
@@ -21913,7 +21913,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="29" spans="1:21" ht="120" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" ht="120">
       <c r="A29" s="44" t="s">
         <v>142</v>
       </c>
@@ -21976,7 +21976,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="30" spans="1:21" ht="120" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" ht="120">
       <c r="A30" s="44" t="s">
         <v>146</v>
       </c>
@@ -22041,7 +22041,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="31" spans="1:21" ht="60" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21" ht="60">
       <c r="A31" s="44" t="s">
         <v>150</v>
       </c>
@@ -22106,7 +22106,7 @@
         <v>1270</v>
       </c>
     </row>
-    <row r="32" spans="1:21" ht="90" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:21" ht="90">
       <c r="A32" s="44" t="s">
         <v>154</v>
       </c>
@@ -22169,7 +22169,7 @@
         <v>1276</v>
       </c>
     </row>
-    <row r="33" spans="1:21" ht="60" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:21" ht="60">
       <c r="A33" s="44" t="s">
         <v>159</v>
       </c>
@@ -22232,7 +22232,7 @@
         <v>1282</v>
       </c>
     </row>
-    <row r="34" spans="1:21" ht="60" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:21" ht="60">
       <c r="A34" s="44" t="s">
         <v>163</v>
       </c>
@@ -22295,7 +22295,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="35" spans="1:21" ht="90" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:21" ht="90">
       <c r="A35" s="44" t="s">
         <v>167</v>
       </c>
@@ -22360,7 +22360,7 @@
         <v>1296</v>
       </c>
     </row>
-    <row r="36" spans="1:21" ht="300" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:21" ht="300">
       <c r="A36" s="44" t="s">
         <v>171</v>
       </c>
@@ -22425,7 +22425,7 @@
         <v>1304</v>
       </c>
     </row>
-    <row r="37" spans="1:21" ht="120" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:21" ht="120">
       <c r="A37" s="44" t="s">
         <v>175</v>
       </c>
@@ -22488,7 +22488,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="38" spans="1:21" ht="90" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:21" ht="90">
       <c r="A38" s="44" t="s">
         <v>179</v>
       </c>
@@ -22551,7 +22551,7 @@
         <v>1316</v>
       </c>
     </row>
-    <row r="39" spans="1:21" ht="270" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:21" ht="270">
       <c r="A39" s="44" t="s">
         <v>184</v>
       </c>
@@ -22614,7 +22614,7 @@
         <v>1322</v>
       </c>
     </row>
-    <row r="40" spans="1:21" ht="195" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:21" ht="195">
       <c r="A40" s="44" t="s">
         <v>188</v>
       </c>
@@ -22677,7 +22677,7 @@
         <v>1328</v>
       </c>
     </row>
-    <row r="41" spans="1:21" ht="120" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:21" ht="75">
       <c r="A41" s="44" t="s">
         <v>191</v>
       </c>
@@ -22740,7 +22740,7 @@
         <v>1334</v>
       </c>
     </row>
-    <row r="42" spans="1:21" ht="210" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:21" ht="210">
       <c r="A42" s="44" t="s">
         <v>195</v>
       </c>
@@ -22803,7 +22803,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="43" spans="1:21" ht="105" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:21" ht="105">
       <c r="A43" s="44" t="s">
         <v>199</v>
       </c>
@@ -22866,7 +22866,7 @@
         <v>1346</v>
       </c>
     </row>
-    <row r="44" spans="1:21" ht="60" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:21" ht="45">
       <c r="A44" s="44" t="s">
         <v>203</v>
       </c>
@@ -22931,7 +22931,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="45" spans="1:21" ht="60" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:21" ht="60">
       <c r="A45" s="44" t="s">
         <v>207</v>
       </c>
@@ -22996,7 +22996,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="46" spans="1:21" ht="60" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:21" ht="60">
       <c r="A46" s="44" t="s">
         <v>211</v>
       </c>
@@ -23059,7 +23059,7 @@
         <v>1366</v>
       </c>
     </row>
-    <row r="47" spans="1:21" ht="105" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:21" ht="105">
       <c r="A47" s="44" t="s">
         <v>215</v>
       </c>
@@ -23122,7 +23122,7 @@
         <v>1372</v>
       </c>
     </row>
-    <row r="48" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:21" ht="45">
       <c r="A48" s="44" t="s">
         <v>219</v>
       </c>
@@ -23185,7 +23185,7 @@
         <v>1378</v>
       </c>
     </row>
-    <row r="49" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:21" ht="45">
       <c r="A49" s="44" t="s">
         <v>223</v>
       </c>
@@ -23248,7 +23248,7 @@
         <v>1384</v>
       </c>
     </row>
-    <row r="50" spans="1:21" ht="90" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:21" ht="90">
       <c r="A50" s="44" t="s">
         <v>227</v>
       </c>
@@ -23311,7 +23311,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="51" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:21" ht="45">
       <c r="A51" s="44" t="s">
         <v>231</v>
       </c>
@@ -23374,7 +23374,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="52" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:21" ht="45">
       <c r="A52" s="44" t="s">
         <v>235</v>
       </c>
@@ -23437,7 +23437,7 @@
         <v>1402</v>
       </c>
     </row>
-    <row r="53" spans="1:21" ht="105" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:21" ht="105">
       <c r="A53" s="44" t="s">
         <v>239</v>
       </c>
@@ -23500,7 +23500,7 @@
         <v>1408</v>
       </c>
     </row>
-    <row r="54" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:21" ht="45">
       <c r="A54" s="44" t="s">
         <v>243</v>
       </c>
@@ -23563,7 +23563,7 @@
         <v>1414</v>
       </c>
     </row>
-    <row r="55" spans="1:21" ht="120" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:21" ht="120">
       <c r="A55" s="44" t="s">
         <v>247</v>
       </c>
@@ -23626,7 +23626,7 @@
         <v>1420</v>
       </c>
     </row>
-    <row r="56" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:21" ht="45">
       <c r="A56" s="44" t="s">
         <v>251</v>
       </c>
@@ -23691,7 +23691,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="57" spans="1:21" ht="105" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:21" ht="105">
       <c r="A57" s="44" t="s">
         <v>255</v>
       </c>
@@ -23754,7 +23754,7 @@
         <v>1433</v>
       </c>
     </row>
-    <row r="58" spans="1:21" ht="135" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:21" ht="150">
       <c r="A58" s="44" t="s">
         <v>259</v>
       </c>
@@ -23819,7 +23819,7 @@
         <v>1440</v>
       </c>
     </row>
-    <row r="59" spans="1:21" ht="90" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:21" ht="90">
       <c r="A59" s="44" t="s">
         <v>263</v>
       </c>
@@ -23882,7 +23882,7 @@
         <v>1447</v>
       </c>
     </row>
-    <row r="60" spans="1:21" ht="120" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:21" ht="120">
       <c r="A60" s="44" t="s">
         <v>267</v>
       </c>
@@ -23945,7 +23945,7 @@
         <v>1454</v>
       </c>
     </row>
-    <row r="61" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:21" ht="30">
       <c r="A61" s="44" t="s">
         <v>271</v>
       </c>
@@ -24008,7 +24008,7 @@
         <v>1460</v>
       </c>
     </row>
-    <row r="62" spans="1:21" ht="120" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:21" ht="120">
       <c r="A62" s="44" t="s">
         <v>275</v>
       </c>
@@ -24071,7 +24071,7 @@
         <v>1467</v>
       </c>
     </row>
-    <row r="63" spans="1:21" ht="120" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:21" ht="120">
       <c r="A63" s="44" t="s">
         <v>278</v>
       </c>
@@ -24134,7 +24134,7 @@
         <v>1473</v>
       </c>
     </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:21">
       <c r="A64" s="44" t="s">
         <v>281</v>
       </c>
@@ -24195,7 +24195,7 @@
         <v>1479</v>
       </c>
     </row>
-    <row r="65" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:21" ht="45">
       <c r="A65" s="44" t="s">
         <v>284</v>
       </c>
@@ -24260,7 +24260,7 @@
         <v>1486</v>
       </c>
     </row>
-    <row r="66" spans="1:21" ht="60" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:21" ht="60">
       <c r="A66" s="44" t="s">
         <v>288</v>
       </c>
@@ -24322,7 +24322,7 @@
         <v>1493</v>
       </c>
     </row>
-    <row r="67" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:21" ht="30">
       <c r="A67" s="44" t="s">
         <v>292</v>
       </c>
@@ -24385,7 +24385,7 @@
         <v>1499</v>
       </c>
     </row>
-    <row r="68" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:21" ht="45">
       <c r="A68" s="44" t="s">
         <v>297</v>
       </c>
@@ -24448,7 +24448,7 @@
         <v>1505</v>
       </c>
     </row>
-    <row r="69" spans="1:21" ht="120" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:21" ht="120">
       <c r="A69" s="44" t="s">
         <v>301</v>
       </c>
@@ -24511,7 +24511,7 @@
         <v>1511</v>
       </c>
     </row>
-    <row r="70" spans="1:21" ht="240" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:21" ht="240">
       <c r="A70" s="44" t="s">
         <v>305</v>
       </c>
@@ -24574,7 +24574,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="71" spans="1:21" ht="105" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:21" ht="105">
       <c r="A71" s="44" t="s">
         <v>309</v>
       </c>
@@ -24637,7 +24637,7 @@
         <v>1523</v>
       </c>
     </row>
-    <row r="72" spans="1:21" ht="255" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:21" ht="255">
       <c r="A72" s="44" t="s">
         <v>313</v>
       </c>
@@ -24700,7 +24700,7 @@
         <v>1529</v>
       </c>
     </row>
-    <row r="73" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:21" ht="45">
       <c r="A73" s="44" t="s">
         <v>317</v>
       </c>
@@ -24763,7 +24763,7 @@
         <v>1535</v>
       </c>
     </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:21">
       <c r="A74" s="44" t="s">
         <v>321</v>
       </c>
@@ -24822,7 +24822,7 @@
         <v>1540</v>
       </c>
     </row>
-    <row r="75" spans="1:21" ht="135" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:21" ht="120">
       <c r="A75" s="44" t="s">
         <v>324</v>
       </c>
@@ -24887,7 +24887,7 @@
         <v>1547</v>
       </c>
     </row>
-    <row r="76" spans="1:21" ht="165" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:21" ht="165">
       <c r="A76" s="44" t="s">
         <v>328</v>
       </c>
@@ -24950,7 +24950,7 @@
         <v>1554</v>
       </c>
     </row>
-    <row r="77" spans="1:21" ht="165" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:21" ht="165">
       <c r="A77" s="44" t="s">
         <v>332</v>
       </c>
@@ -25015,7 +25015,7 @@
         <v>1562</v>
       </c>
     </row>
-    <row r="78" spans="1:21" ht="300" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:21" ht="300">
       <c r="A78" s="44" t="s">
         <v>336</v>
       </c>
@@ -25080,7 +25080,7 @@
         <v>1569</v>
       </c>
     </row>
-    <row r="79" spans="1:21" ht="90" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:21" ht="90">
       <c r="A79" s="44" t="s">
         <v>339</v>
       </c>
@@ -25143,7 +25143,7 @@
         <v>1575</v>
       </c>
     </row>
-    <row r="80" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:21" ht="45">
       <c r="A80" s="44" t="s">
         <v>343</v>
       </c>
@@ -25206,7 +25206,7 @@
         <v>1581</v>
       </c>
     </row>
-    <row r="81" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:21" ht="45">
       <c r="A81" s="44" t="s">
         <v>347</v>
       </c>
@@ -25269,7 +25269,7 @@
         <v>1587</v>
       </c>
     </row>
-    <row r="82" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:21" ht="45">
       <c r="A82" s="44" t="s">
         <v>351</v>
       </c>
@@ -25330,7 +25330,7 @@
         <v>1593</v>
       </c>
     </row>
-    <row r="83" spans="1:21" ht="150" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:21" ht="150">
       <c r="A83" s="44" t="s">
         <v>355</v>
       </c>
@@ -25393,7 +25393,7 @@
         <v>1599</v>
       </c>
     </row>
-    <row r="84" spans="1:21" ht="90" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:21" ht="90">
       <c r="A84" s="44" t="s">
         <v>359</v>
       </c>
@@ -25456,7 +25456,7 @@
         <v>1605</v>
       </c>
     </row>
-    <row r="85" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:21">
       <c r="A85" s="44" t="s">
         <v>363</v>
       </c>
@@ -25519,7 +25519,7 @@
         <v>1611</v>
       </c>
     </row>
-    <row r="86" spans="1:21" ht="105" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:21" ht="105">
       <c r="A86" s="44" t="s">
         <v>367</v>
       </c>
@@ -25582,7 +25582,7 @@
         <v>1617</v>
       </c>
     </row>
-    <row r="87" spans="1:21" ht="105" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:21" ht="105">
       <c r="A87" s="44" t="s">
         <v>371</v>
       </c>
@@ -25645,7 +25645,7 @@
         <v>1623</v>
       </c>
     </row>
-    <row r="88" spans="1:21" ht="75" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:21" ht="75">
       <c r="A88" s="44" t="s">
         <v>375</v>
       </c>
@@ -25706,7 +25706,7 @@
         <v>1629</v>
       </c>
     </row>
-    <row r="89" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:21" ht="45">
       <c r="A89" s="44" t="s">
         <v>378</v>
       </c>
@@ -25769,7 +25769,7 @@
         <v>1635</v>
       </c>
     </row>
-    <row r="90" spans="1:21" ht="60" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:21" ht="60">
       <c r="A90" s="44" t="s">
         <v>382</v>
       </c>
@@ -25832,7 +25832,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="91" spans="1:21" ht="60" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:21" ht="60">
       <c r="A91" s="44" t="s">
         <v>386</v>
       </c>
@@ -25895,7 +25895,7 @@
         <v>1647</v>
       </c>
     </row>
-    <row r="92" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:21" ht="45">
       <c r="A92" s="44" t="s">
         <v>390</v>
       </c>
@@ -25958,7 +25958,7 @@
         <v>1653</v>
       </c>
     </row>
-    <row r="93" spans="1:21" ht="90" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:21" ht="90">
       <c r="A93" s="44" t="s">
         <v>394</v>
       </c>
@@ -26021,7 +26021,7 @@
         <v>1659</v>
       </c>
     </row>
-    <row r="94" spans="1:21" ht="90" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:21" ht="90">
       <c r="A94" s="44" t="s">
         <v>398</v>
       </c>
@@ -26084,7 +26084,7 @@
         <v>1666</v>
       </c>
     </row>
-    <row r="95" spans="1:21" ht="285" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:21" ht="285">
       <c r="A95" s="44" t="s">
         <v>402</v>
       </c>
@@ -26149,7 +26149,7 @@
         <v>1673</v>
       </c>
     </row>
-    <row r="96" spans="1:21" ht="60" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:21" ht="60">
       <c r="A96" s="44" t="s">
         <v>406</v>
       </c>
@@ -26212,7 +26212,7 @@
         <v>1679</v>
       </c>
     </row>
-    <row r="97" spans="1:21" ht="105" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:21" ht="105">
       <c r="A97" s="44" t="s">
         <v>410</v>
       </c>
@@ -26275,7 +26275,7 @@
         <v>1685</v>
       </c>
     </row>
-    <row r="98" spans="1:21" ht="105" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:21" ht="105">
       <c r="A98" s="44" t="s">
         <v>414</v>
       </c>
@@ -26338,7 +26338,7 @@
         <v>1691</v>
       </c>
     </row>
-    <row r="99" spans="1:21" ht="75" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:21" ht="75">
       <c r="A99" s="44" t="s">
         <v>418</v>
       </c>
@@ -26417,7 +26417,7 @@
       <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="73.28515625" customWidth="1"/>
     <col min="3" max="3" width="93.140625" hidden="1" customWidth="1"/>
@@ -26439,7 +26439,7 @@
     <col min="19" max="19" width="62.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" s="28" customFormat="1">
       <c r="A1" s="41" t="s">
         <v>0</v>
       </c>
@@ -26492,7 +26492,7 @@
       </c>
       <c r="S1" s="42"/>
     </row>
-    <row r="2" spans="1:19" s="27" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" s="27" customFormat="1" ht="15.75" thickBot="1">
       <c r="A2" s="40"/>
       <c r="B2" s="40" t="s">
         <v>1067</v>
@@ -26549,7 +26549,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" ht="60">
       <c r="A3" s="44" t="s">
         <v>16</v>
       </c>
@@ -26602,7 +26602,7 @@
         <v>1699</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" ht="30">
       <c r="A4" s="44" t="s">
         <v>25</v>
       </c>
@@ -26655,7 +26655,7 @@
         <v>1700</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" ht="30">
       <c r="A5" s="44" t="s">
         <v>32</v>
       </c>
@@ -26708,7 +26708,7 @@
         <v>1701</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="150" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" ht="150">
       <c r="A6" s="44" t="s">
         <v>39</v>
       </c>
@@ -26761,7 +26761,7 @@
         <v>1702</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="150" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" ht="150">
       <c r="A7" s="44" t="s">
         <v>46</v>
       </c>
@@ -26814,7 +26814,7 @@
         <v>1703</v>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" ht="60">
       <c r="A8" s="44" t="s">
         <v>51</v>
       </c>
@@ -26865,7 +26865,7 @@
         <v>1704</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" ht="45">
       <c r="A9" s="44" t="s">
         <v>55</v>
       </c>
@@ -26918,7 +26918,7 @@
         <v>1705</v>
       </c>
     </row>
-    <row r="10" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" ht="45">
       <c r="A10" s="44" t="s">
         <v>59</v>
       </c>
@@ -26971,7 +26971,7 @@
         <v>1706</v>
       </c>
     </row>
-    <row r="11" spans="1:19" ht="75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" ht="75">
       <c r="A11" s="44" t="s">
         <v>65</v>
       </c>
@@ -27024,7 +27024,7 @@
         <v>1707</v>
       </c>
     </row>
-    <row r="12" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" ht="45">
       <c r="A12" s="44" t="s">
         <v>70</v>
       </c>
@@ -27077,7 +27077,7 @@
         <v>1708</v>
       </c>
     </row>
-    <row r="13" spans="1:19" ht="90" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" ht="90">
       <c r="A13" s="44" t="s">
         <v>75</v>
       </c>
@@ -27130,7 +27130,7 @@
         <v>1709</v>
       </c>
     </row>
-    <row r="14" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" ht="45">
       <c r="A14" s="44" t="s">
         <v>80</v>
       </c>
@@ -27183,7 +27183,7 @@
         <v>1710</v>
       </c>
     </row>
-    <row r="15" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" ht="45">
       <c r="A15" s="44" t="s">
         <v>85</v>
       </c>
@@ -27236,7 +27236,7 @@
         <v>1712</v>
       </c>
     </row>
-    <row r="16" spans="1:19" ht="240" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" ht="240">
       <c r="A16" s="44" t="s">
         <v>89</v>
       </c>
@@ -27292,7 +27292,7 @@
         <v>1714</v>
       </c>
     </row>
-    <row r="17" spans="1:19" ht="90" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" ht="90">
       <c r="A17" s="44" t="s">
         <v>93</v>
       </c>
@@ -27345,7 +27345,7 @@
         <v>1715</v>
       </c>
     </row>
-    <row r="18" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" ht="60">
       <c r="A18" s="44" t="s">
         <v>97</v>
       </c>
@@ -27398,7 +27398,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="19" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" ht="60">
       <c r="A19" s="44" t="s">
         <v>102</v>
       </c>
@@ -27451,7 +27451,7 @@
         <v>1717</v>
       </c>
     </row>
-    <row r="20" spans="1:19" ht="120" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" ht="120">
       <c r="A20" s="44" t="s">
         <v>106</v>
       </c>
@@ -27504,7 +27504,7 @@
         <v>1718</v>
       </c>
     </row>
-    <row r="21" spans="1:19" ht="90" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" ht="90">
       <c r="A21" s="44" t="s">
         <v>110</v>
       </c>
@@ -27560,7 +27560,7 @@
         <v>1720</v>
       </c>
     </row>
-    <row r="22" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" ht="45">
       <c r="A22" s="44" t="s">
         <v>114</v>
       </c>
@@ -27613,7 +27613,7 @@
         <v>1721</v>
       </c>
     </row>
-    <row r="23" spans="1:19" ht="120" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" ht="120">
       <c r="A23" s="44" t="s">
         <v>118</v>
       </c>
@@ -27666,7 +27666,7 @@
         <v>1722</v>
       </c>
     </row>
-    <row r="24" spans="1:19" ht="60" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" ht="60">
       <c r="A24" s="44" t="s">
         <v>122</v>
       </c>
@@ -27719,7 +27719,7 @@
         <v>1723</v>
       </c>
     </row>
-    <row r="25" spans="1:19" ht="135" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" ht="135">
       <c r="A25" s="44" t="s">
         <v>126</v>
       </c>
@@ -27772,7 +27772,7 @@
         <v>1724</v>
       </c>
     </row>
-    <row r="26" spans="1:19" ht="150" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" ht="150">
       <c r="A26" s="44" t="s">
         <v>130</v>
       </c>
@@ -27825,7 +27825,7 @@
         <v>1725</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19">
       <c r="A27" s="44" t="s">
         <v>135</v>
       </c>
@@ -27873,7 +27873,7 @@
       </c>
       <c r="P27" s="36"/>
     </row>
-    <row r="28" spans="1:19" ht="75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" ht="75">
       <c r="A28" s="44" t="s">
         <v>139</v>
       </c>
@@ -27929,7 +27929,7 @@
         <v>1727</v>
       </c>
     </row>
-    <row r="29" spans="1:19" ht="135" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" ht="135">
       <c r="A29" s="44" t="s">
         <v>142</v>
       </c>
@@ -27982,7 +27982,7 @@
         <v>1728</v>
       </c>
     </row>
-    <row r="30" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" ht="45">
       <c r="A30" s="44" t="s">
         <v>146</v>
       </c>
@@ -28035,7 +28035,7 @@
         <v>1729</v>
       </c>
     </row>
-    <row r="31" spans="1:19" ht="75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" ht="75">
       <c r="A31" s="44" t="s">
         <v>150</v>
       </c>
@@ -28088,7 +28088,7 @@
         <v>1730</v>
       </c>
     </row>
-    <row r="32" spans="1:19" ht="105" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" ht="105">
       <c r="A32" s="44" t="s">
         <v>154</v>
       </c>
@@ -28141,7 +28141,7 @@
         <v>1731</v>
       </c>
     </row>
-    <row r="33" spans="1:17" ht="75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17" ht="75">
       <c r="A33" s="44" t="s">
         <v>159</v>
       </c>
@@ -28194,7 +28194,7 @@
         <v>1732</v>
       </c>
     </row>
-    <row r="34" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17" ht="45">
       <c r="A34" s="44" t="s">
         <v>163</v>
       </c>
@@ -28247,7 +28247,7 @@
         <v>1733</v>
       </c>
     </row>
-    <row r="35" spans="1:17" ht="90" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17" ht="90">
       <c r="A35" s="44" t="s">
         <v>167</v>
       </c>
@@ -28300,7 +28300,7 @@
         <v>1734</v>
       </c>
     </row>
-    <row r="36" spans="1:17" ht="375" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17" ht="375">
       <c r="A36" s="44" t="s">
         <v>171</v>
       </c>
@@ -28353,7 +28353,7 @@
         <v>1735</v>
       </c>
     </row>
-    <row r="37" spans="1:17" ht="75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:17" ht="75">
       <c r="A37" s="44" t="s">
         <v>175</v>
       </c>
@@ -28406,7 +28406,7 @@
         <v>1736</v>
       </c>
     </row>
-    <row r="38" spans="1:17" ht="75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17" ht="75">
       <c r="A38" s="44" t="s">
         <v>179</v>
       </c>
@@ -28459,7 +28459,7 @@
         <v>1737</v>
       </c>
     </row>
-    <row r="39" spans="1:17" ht="225" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17" ht="225">
       <c r="A39" s="44" t="s">
         <v>184</v>
       </c>
@@ -28512,7 +28512,7 @@
         <v>1738</v>
       </c>
     </row>
-    <row r="40" spans="1:17" ht="195" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:17" ht="195">
       <c r="A40" s="44" t="s">
         <v>188</v>
       </c>
@@ -28565,7 +28565,7 @@
         <v>1739</v>
       </c>
     </row>
-    <row r="41" spans="1:17" ht="120" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:17" ht="120">
       <c r="A41" s="44" t="s">
         <v>191</v>
       </c>
@@ -28618,7 +28618,7 @@
         <v>1740</v>
       </c>
     </row>
-    <row r="42" spans="1:17" ht="255" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:17" ht="255">
       <c r="A42" s="44" t="s">
         <v>195</v>
       </c>
@@ -28671,7 +28671,7 @@
         <v>1741</v>
       </c>
     </row>
-    <row r="43" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:17" ht="45">
       <c r="A43" s="44" t="s">
         <v>199</v>
       </c>
@@ -28724,7 +28724,7 @@
         <v>1742</v>
       </c>
     </row>
-    <row r="44" spans="1:17" ht="60" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:17" ht="60">
       <c r="A44" s="44" t="s">
         <v>203</v>
       </c>
@@ -28777,7 +28777,7 @@
         <v>1743</v>
       </c>
     </row>
-    <row r="45" spans="1:17" ht="90" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:17" ht="90">
       <c r="A45" s="44" t="s">
         <v>207</v>
       </c>
@@ -28830,7 +28830,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="46" spans="1:17" ht="60" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:17" ht="60">
       <c r="A46" s="44" t="s">
         <v>211</v>
       </c>
@@ -28883,7 +28883,7 @@
         <v>1745</v>
       </c>
     </row>
-    <row r="47" spans="1:17" ht="90" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:17" ht="90">
       <c r="A47" s="44" t="s">
         <v>215</v>
       </c>
@@ -28936,7 +28936,7 @@
         <v>1746</v>
       </c>
     </row>
-    <row r="48" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:17" ht="30">
       <c r="A48" s="44" t="s">
         <v>219</v>
       </c>
@@ -28989,7 +28989,7 @@
         <v>1747</v>
       </c>
     </row>
-    <row r="49" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:17" ht="45">
       <c r="A49" s="44" t="s">
         <v>223</v>
       </c>
@@ -29042,7 +29042,7 @@
         <v>1748</v>
       </c>
     </row>
-    <row r="50" spans="1:17" ht="120" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:17" ht="120">
       <c r="A50" s="44" t="s">
         <v>227</v>
       </c>
@@ -29095,7 +29095,7 @@
         <v>1749</v>
       </c>
     </row>
-    <row r="51" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:17" ht="30">
       <c r="A51" s="44" t="s">
         <v>231</v>
       </c>
@@ -29148,7 +29148,7 @@
         <v>1750</v>
       </c>
     </row>
-    <row r="52" spans="1:17" ht="60" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:17" ht="60">
       <c r="A52" s="44" t="s">
         <v>235</v>
       </c>
@@ -29201,7 +29201,7 @@
         <v>1751</v>
       </c>
     </row>
-    <row r="53" spans="1:17" ht="75" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:17" ht="75">
       <c r="A53" s="44" t="s">
         <v>239</v>
       </c>
@@ -29254,7 +29254,7 @@
         <v>1752</v>
       </c>
     </row>
-    <row r="54" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:17" ht="45">
       <c r="A54" s="44" t="s">
         <v>243</v>
       </c>
@@ -29307,7 +29307,7 @@
         <v>1753</v>
       </c>
     </row>
-    <row r="55" spans="1:17" ht="105" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:17" ht="105">
       <c r="A55" s="44" t="s">
         <v>247</v>
       </c>
@@ -29360,7 +29360,7 @@
         <v>1754</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:17">
       <c r="A56" s="44" t="s">
         <v>251</v>
       </c>
@@ -29413,7 +29413,7 @@
         <v>1755</v>
       </c>
     </row>
-    <row r="57" spans="1:17" ht="75" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:17" ht="75">
       <c r="A57" s="44" t="s">
         <v>255</v>
       </c>
@@ -29466,7 +29466,7 @@
         <v>1756</v>
       </c>
     </row>
-    <row r="58" spans="1:17" ht="90" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:17" ht="90">
       <c r="A58" s="44" t="s">
         <v>259</v>
       </c>
@@ -29519,7 +29519,7 @@
         <v>1757</v>
       </c>
     </row>
-    <row r="59" spans="1:17" ht="60" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:17" ht="60">
       <c r="A59" s="44" t="s">
         <v>263</v>
       </c>
@@ -29572,7 +29572,7 @@
         <v>1758</v>
       </c>
     </row>
-    <row r="60" spans="1:17" ht="105" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:17" ht="105">
       <c r="A60" s="44" t="s">
         <v>267</v>
       </c>
@@ -29625,7 +29625,7 @@
         <v>1759</v>
       </c>
     </row>
-    <row r="61" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:17" ht="45">
       <c r="A61" s="44" t="s">
         <v>271</v>
       </c>
@@ -29678,7 +29678,7 @@
         <v>1760</v>
       </c>
     </row>
-    <row r="62" spans="1:17" ht="120" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:17" ht="120">
       <c r="A62" s="44" t="s">
         <v>275</v>
       </c>
@@ -29731,7 +29731,7 @@
         <v>1761</v>
       </c>
     </row>
-    <row r="63" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:17" ht="30">
       <c r="A63" s="44" t="s">
         <v>278</v>
       </c>
@@ -29784,7 +29784,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:17">
       <c r="A64" s="44" t="s">
         <v>281</v>
       </c>
@@ -29835,7 +29835,7 @@
         <v>1763</v>
       </c>
     </row>
-    <row r="65" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:17" ht="45">
       <c r="A65" s="44" t="s">
         <v>284</v>
       </c>
@@ -29888,7 +29888,7 @@
         <v>1764</v>
       </c>
     </row>
-    <row r="66" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:17" ht="30">
       <c r="A66" s="44" t="s">
         <v>288</v>
       </c>
@@ -29941,7 +29941,7 @@
         <v>1765</v>
       </c>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:17">
       <c r="A67" s="44" t="s">
         <v>292</v>
       </c>
@@ -29994,7 +29994,7 @@
         <v>1766</v>
       </c>
     </row>
-    <row r="68" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:17" ht="45">
       <c r="A68" s="44" t="s">
         <v>297</v>
       </c>
@@ -30047,7 +30047,7 @@
         <v>1767</v>
       </c>
     </row>
-    <row r="69" spans="1:17" ht="135" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:17" ht="135">
       <c r="A69" s="44" t="s">
         <v>301</v>
       </c>
@@ -30100,7 +30100,7 @@
         <v>1768</v>
       </c>
     </row>
-    <row r="70" spans="1:17" ht="300" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:17" ht="300">
       <c r="A70" s="44" t="s">
         <v>305</v>
       </c>
@@ -30153,7 +30153,7 @@
         <v>1769</v>
       </c>
     </row>
-    <row r="71" spans="1:17" ht="75" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:17" ht="75">
       <c r="A71" s="44" t="s">
         <v>309</v>
       </c>
@@ -30206,7 +30206,7 @@
         <v>1770</v>
       </c>
     </row>
-    <row r="72" spans="1:17" ht="135" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:17" ht="135">
       <c r="A72" s="44" t="s">
         <v>313</v>
       </c>
@@ -30259,7 +30259,7 @@
         <v>1771</v>
       </c>
     </row>
-    <row r="73" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:17" ht="45">
       <c r="A73" s="44" t="s">
         <v>317</v>
       </c>
@@ -30312,7 +30312,7 @@
         <v>1772</v>
       </c>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:17">
       <c r="A74" s="44" t="s">
         <v>321</v>
       </c>
@@ -30360,7 +30360,7 @@
       </c>
       <c r="P74" s="36"/>
     </row>
-    <row r="75" spans="1:17" ht="135" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:17" ht="135">
       <c r="A75" s="44" t="s">
         <v>324</v>
       </c>
@@ -30413,7 +30413,7 @@
         <v>1773</v>
       </c>
     </row>
-    <row r="76" spans="1:17" ht="180" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:17" ht="180">
       <c r="A76" s="44" t="s">
         <v>328</v>
       </c>
@@ -30466,7 +30466,7 @@
         <v>1774</v>
       </c>
     </row>
-    <row r="77" spans="1:17" ht="90" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:17" ht="90">
       <c r="A77" s="44" t="s">
         <v>332</v>
       </c>
@@ -30519,7 +30519,7 @@
         <v>1775</v>
       </c>
     </row>
-    <row r="78" spans="1:17" ht="210" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:17" ht="210">
       <c r="A78" s="44" t="s">
         <v>336</v>
       </c>
@@ -30572,7 +30572,7 @@
         <v>1776</v>
       </c>
     </row>
-    <row r="79" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:17" ht="45">
       <c r="A79" s="44" t="s">
         <v>339</v>
       </c>
@@ -30625,7 +30625,7 @@
         <v>1777</v>
       </c>
     </row>
-    <row r="80" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:17" ht="30">
       <c r="A80" s="44" t="s">
         <v>343</v>
       </c>
@@ -30678,7 +30678,7 @@
         <v>1778</v>
       </c>
     </row>
-    <row r="81" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:17" ht="30">
       <c r="A81" s="44" t="s">
         <v>347</v>
       </c>
@@ -30731,7 +30731,7 @@
         <v>1779</v>
       </c>
     </row>
-    <row r="82" spans="1:17" ht="60" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:17" ht="60">
       <c r="A82" s="44" t="s">
         <v>351</v>
       </c>
@@ -30782,7 +30782,7 @@
         <v>1780</v>
       </c>
     </row>
-    <row r="83" spans="1:17" ht="75" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:17" ht="75">
       <c r="A83" s="44" t="s">
         <v>355</v>
       </c>
@@ -30835,7 +30835,7 @@
         <v>1781</v>
       </c>
     </row>
-    <row r="84" spans="1:17" ht="75" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:17" ht="75">
       <c r="A84" s="44" t="s">
         <v>359</v>
       </c>
@@ -30888,7 +30888,7 @@
         <v>1782</v>
       </c>
     </row>
-    <row r="85" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:17" ht="45">
       <c r="A85" s="44" t="s">
         <v>363</v>
       </c>
@@ -30941,7 +30941,7 @@
         <v>1783</v>
       </c>
     </row>
-    <row r="86" spans="1:17" ht="90" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:17" ht="90">
       <c r="A86" s="44" t="s">
         <v>367</v>
       </c>
@@ -30994,7 +30994,7 @@
         <v>1784</v>
       </c>
     </row>
-    <row r="87" spans="1:17" ht="120" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:17" ht="120">
       <c r="A87" s="44" t="s">
         <v>371</v>
       </c>
@@ -31047,7 +31047,7 @@
         <v>1785</v>
       </c>
     </row>
-    <row r="88" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:17" ht="45">
       <c r="A88" s="44" t="s">
         <v>375</v>
       </c>
@@ -31098,7 +31098,7 @@
         <v>1786</v>
       </c>
     </row>
-    <row r="89" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:17" ht="45">
       <c r="A89" s="44" t="s">
         <v>378</v>
       </c>
@@ -31151,7 +31151,7 @@
         <v>1787</v>
       </c>
     </row>
-    <row r="90" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:17" ht="45">
       <c r="A90" s="44" t="s">
         <v>382</v>
       </c>
@@ -31204,7 +31204,7 @@
         <v>1788</v>
       </c>
     </row>
-    <row r="91" spans="1:17" ht="60" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:17" ht="60">
       <c r="A91" s="44" t="s">
         <v>386</v>
       </c>
@@ -31257,7 +31257,7 @@
         <v>1789</v>
       </c>
     </row>
-    <row r="92" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:17" ht="45">
       <c r="A92" s="44" t="s">
         <v>390</v>
       </c>
@@ -31310,7 +31310,7 @@
         <v>1790</v>
       </c>
     </row>
-    <row r="93" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:17" ht="45">
       <c r="A93" s="44" t="s">
         <v>394</v>
       </c>
@@ -31363,7 +31363,7 @@
         <v>1791</v>
       </c>
     </row>
-    <row r="94" spans="1:17" ht="75" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:17" ht="75">
       <c r="A94" s="44" t="s">
         <v>398</v>
       </c>
@@ -31416,7 +31416,7 @@
         <v>1792</v>
       </c>
     </row>
-    <row r="95" spans="1:17" ht="105" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:17" ht="105">
       <c r="A95" s="44" t="s">
         <v>402</v>
       </c>
@@ -31469,7 +31469,7 @@
         <v>1793</v>
       </c>
     </row>
-    <row r="96" spans="1:17" ht="45" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:17" ht="45">
       <c r="A96" s="44" t="s">
         <v>406</v>
       </c>
@@ -31522,7 +31522,7 @@
         <v>1794</v>
       </c>
     </row>
-    <row r="97" spans="1:17" ht="60" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:17" ht="60">
       <c r="A97" s="44" t="s">
         <v>410</v>
       </c>
@@ -31575,7 +31575,7 @@
         <v>1795</v>
       </c>
     </row>
-    <row r="98" spans="1:17" ht="135" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:17" ht="135">
       <c r="A98" s="44" t="s">
         <v>414</v>
       </c>
@@ -31628,7 +31628,7 @@
         <v>1796</v>
       </c>
     </row>
-    <row r="99" spans="1:17" ht="60" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:17" ht="60">
       <c r="A99" s="44" t="s">
         <v>418</v>
       </c>
@@ -31697,7 +31697,7 @@
       <selection pane="bottomLeft" activeCell="Y2" sqref="Y2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="17.850000000000001" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="8.7109375"/>
     <col min="2" max="2" width="22.42578125" customWidth="1"/>
@@ -31739,7 +31739,7 @@
     <col min="38" max="38" width="54.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" s="25" customFormat="1" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:38" s="25" customFormat="1" ht="17.850000000000001" customHeight="1">
       <c r="A1" s="25" t="str">
         <f>RAW!A1</f>
         <v>Study ID</v>
@@ -31856,7 +31856,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="2" spans="1:38" s="26" customFormat="1" ht="17.850000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:38" s="26" customFormat="1" ht="17.850000000000001" customHeight="1" thickBot="1">
       <c r="A2" s="26">
         <f>RAW!A2</f>
         <v>0</v>
@@ -31973,7 +31973,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="3" spans="1:38" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:38" ht="17.850000000000001" customHeight="1">
       <c r="A3" t="str">
         <f>RAW!A3</f>
         <v>P3</v>
@@ -32130,7 +32130,7 @@
         <v>Extension of _ONE_ workflow between multiple devices not possible. Each device has its own instantiiation</v>
       </c>
     </row>
-    <row r="4" spans="1:38" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:38" ht="17.850000000000001" customHeight="1">
       <c r="A4" t="str">
         <f>RAW!A4</f>
         <v>P4</v>
@@ -32289,7 +32289,7 @@
         <v>Movies watch better in tv than in phone for example</v>
       </c>
     </row>
-    <row r="5" spans="1:38" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:38" ht="17.850000000000001" customHeight="1">
       <c r="A5" t="str">
         <f>RAW!A5</f>
         <v>P5</v>
@@ -32446,7 +32446,7 @@
         <v>Not good sync between devices</v>
       </c>
     </row>
-    <row r="6" spans="1:38" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:38" ht="17.850000000000001" customHeight="1">
       <c r="A6" t="str">
         <f>RAW!A6</f>
         <v>P6</v>
@@ -32596,7 +32596,7 @@
         <v>Usually it's a software limitation. I don't use multiple devices for activities such as using Excel because there isn't a usable solution on anything except a Windows PC. (Okay maybe a Mac but I don't own one). I also don't use multiple devices for certain websites that don't work well with an iPhone or iPad.</v>
       </c>
     </row>
-    <row r="7" spans="1:38" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:38" ht="17.850000000000001" customHeight="1">
       <c r="A7" t="str">
         <f>RAW!A7</f>
         <v>P7</v>
@@ -32756,7 +32756,7 @@
 Also, the phone has very bad sound, so not good at all for music.</v>
       </c>
     </row>
-    <row r="8" spans="1:38" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:38" ht="17.850000000000001" customHeight="1">
       <c r="A8" t="str">
         <f>RAW!A8</f>
         <v>P8</v>
@@ -32916,7 +32916,7 @@
 Security is a thing!</v>
       </c>
     </row>
-    <row r="9" spans="1:38" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:38" ht="17.850000000000001" customHeight="1">
       <c r="A9" t="str">
         <f>RAW!A9</f>
         <v>P9</v>
@@ -33062,7 +33062,7 @@
         <v xml:space="preserve">I do prefer to have access to home email and home web browser profile on my work device and connect remotely to my desktop PC for media </v>
       </c>
     </row>
-    <row r="10" spans="1:38" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:38" ht="17.850000000000001" customHeight="1">
       <c r="A10" t="str">
         <f>RAW!A10</f>
         <v>P10</v>
@@ -33225,7 +33225,7 @@
         <v>I often do work and personal activity on the same device because it is hard to separate them. But, I only do this on devices I own rather than ones that work owns.</v>
       </c>
     </row>
-    <row r="11" spans="1:38" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:38" ht="17.850000000000001" customHeight="1">
       <c r="A11" t="str">
         <f>RAW!A11</f>
         <v>P11</v>
@@ -33372,7 +33372,7 @@
         <v>n</v>
       </c>
     </row>
-    <row r="12" spans="1:38" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:38" ht="17.850000000000001" customHeight="1">
       <c r="A12" t="str">
         <f>RAW!A12</f>
         <v>P12</v>
@@ -33510,7 +33510,7 @@
         <v>Time consuming to set up</v>
       </c>
     </row>
-    <row r="13" spans="1:38" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:38" ht="17.850000000000001" customHeight="1">
       <c r="A13" t="str">
         <f>RAW!A13</f>
         <v>P13</v>
@@ -33660,7 +33660,7 @@
         <v xml:space="preserve">When I want to relax or just consume I will use one device. </v>
       </c>
     </row>
-    <row r="14" spans="1:38" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:38" ht="17.850000000000001" customHeight="1">
       <c r="A14" t="str">
         <f>RAW!A14</f>
         <v>P14</v>
@@ -33827,7 +33827,7 @@
         <v>only doing a single operation (just media)</v>
       </c>
     </row>
-    <row r="15" spans="1:38" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:38" ht="17.850000000000001" customHeight="1">
       <c r="A15" t="str">
         <f>RAW!A15</f>
         <v>P15</v>
@@ -33980,7 +33980,7 @@
         <v>Cenrtalixed solution is better</v>
       </c>
     </row>
-    <row r="16" spans="1:38" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:38" ht="17.850000000000001" customHeight="1">
       <c r="A16" t="str">
         <f>RAW!A16</f>
         <v>P16</v>
@@ -34154,7 +34154,7 @@
 My PC laptop is perfect, and I love my Surface Pro and will soon upgrade it. The Phone is really useful and I will upgrade it to the upcoming Surface Duo when available - I really want to use the double screens for my Office app productivity. I expect to loose big money on a 1st-gen device, which will have limitations, but I want the portable productivity.</v>
       </c>
     </row>
-    <row r="17" spans="1:38" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:38" ht="17.850000000000001" customHeight="1">
       <c r="A17" t="str">
         <f>RAW!A17</f>
         <v>P17</v>
@@ -34294,7 +34294,7 @@
         <v>Complex activities like writing long emails or creating spreadsheets, presentations, I only use my Surface Pro</v>
       </c>
     </row>
-    <row r="18" spans="1:38" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:38" ht="17.850000000000001" customHeight="1">
       <c r="A18" t="str">
         <f>RAW!A18</f>
         <v>P18</v>
@@ -34432,7 +34432,7 @@
         <v>Vertical screen Playing games while resting, the portrait experience is too bad. Now only one screen can be left for landscape experience.</v>
       </c>
     </row>
-    <row r="19" spans="1:38" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:38" ht="17.850000000000001" customHeight="1">
       <c r="A19" t="str">
         <f>RAW!A19</f>
         <v>P19</v>
@@ -34574,7 +34574,7 @@
         <v>When it's after work I go to a single device, it's time to relax and not multitask.</v>
       </c>
     </row>
-    <row r="20" spans="1:38" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:38" ht="17.850000000000001" customHeight="1">
       <c r="A20" t="str">
         <f>RAW!A20</f>
         <v>P20</v>
@@ -34734,7 +34734,7 @@
         <v xml:space="preserve">i simply dont need another device for the current task, or a second device would be difficult to manage in the space </v>
       </c>
     </row>
-    <row r="21" spans="1:38" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:38" ht="17.850000000000001" customHeight="1">
       <c r="A21" t="str">
         <f>RAW!A21</f>
         <v>P21</v>
@@ -34895,7 +34895,7 @@
 Difficulty transferring files between Windows and Linux means I rarely split 3D modeling or coding tasks between them even when it would be beneficial, instead chosing to let 1 machine run all the software</v>
       </c>
     </row>
-    <row r="22" spans="1:38" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:38" ht="17.850000000000001" customHeight="1">
       <c r="A22" t="str">
         <f>RAW!A22</f>
         <v>P22</v>
@@ -35045,7 +35045,7 @@
 3. Some devices are not capable of performing particular tasks.</v>
       </c>
     </row>
-    <row r="23" spans="1:38" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:38" ht="17.850000000000001" customHeight="1">
       <c r="A23" t="str">
         <f>RAW!A23</f>
         <v>P23</v>
@@ -35198,7 +35198,7 @@
         <v>The whole idea is centered around MODULAR DESIGN and cost.  When I'm out recreationally a smartphone that can actually EASILY fit in my pocket is perfect.  I CAN do work if necessary, but communication and other social networking is extremely easy.  If I believe I may need more real estate, a large phone makes no sense to me, but throwing a Surface Pro in my backpack and bring it along is perfect. When I need the larger form factor in a mobile device, this is when the phone is completely impractical.</v>
       </c>
     </row>
-    <row r="24" spans="1:38" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:38" ht="17.850000000000001" customHeight="1">
       <c r="A24" t="str">
         <f>RAW!A24</f>
         <v>P24</v>
@@ -35364,7 +35364,7 @@
         <v>Sometimes I lose track of what I'm doing on my phone, and I would've wanted to continue doing it on my laptop. I understand there's a Continue to PC feature on Edge, but well tech is not perfect.</v>
       </c>
     </row>
-    <row r="25" spans="1:38" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:38" ht="17.850000000000001" customHeight="1">
       <c r="A25" t="str">
         <f>RAW!A25</f>
         <v>P25</v>
@@ -35521,7 +35521,7 @@
         <v>main classroom with the multiple screens... can move when doing demo work so one PC and the 2 large class screens is unique. still multiple screens i know.. but still one PC and one seat, its a visual classroom so kstudents need to watch and learn and not be distracted by me moving around. very different from using the GO in the workshop where i need to move and interact. (when not in lockdown of course)</v>
       </c>
     </row>
-    <row r="26" spans="1:38" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:38" ht="17.850000000000001" customHeight="1">
       <c r="A26" t="str">
         <f>RAW!A26</f>
         <v>P26</v>
@@ -35665,7 +35665,7 @@
         <v>Portability and space. In some situations I do not have the space to use multiple devices or the space to setup multiple devices (example: on the go, in class or a public space). If I can use one device to do what I want, then I just use one device.</v>
       </c>
     </row>
-    <row r="27" spans="1:38" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:38" ht="17.850000000000001" customHeight="1">
       <c r="A27" t="str">
         <f>RAW!A27</f>
         <v>P27</v>
@@ -35803,7 +35803,7 @@
         <v>σπάνια</v>
       </c>
     </row>
-    <row r="28" spans="1:38" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:38" ht="17.850000000000001" customHeight="1">
       <c r="A28" t="str">
         <f>RAW!A28</f>
         <v>P28</v>
@@ -35948,7 +35948,7 @@
         <v xml:space="preserve">I can't think of situations where I do not use my phone and my computer.  My phone is always with me and being monitored for incoming text messages. </v>
       </c>
     </row>
-    <row r="29" spans="1:38" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:38" ht="17.850000000000001" customHeight="1">
       <c r="A29" t="str">
         <f>RAW!A29</f>
         <v>P29</v>
@@ -36116,7 +36116,7 @@
         <v>Accounts and access are tied to specific devices (work).  In these cases I remote into the specific device to do the work.</v>
       </c>
     </row>
-    <row r="30" spans="1:38" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:38" ht="17.850000000000001" customHeight="1">
       <c r="A30" t="str">
         <f>RAW!A30</f>
         <v>P30</v>
@@ -36267,7 +36267,7 @@
         <v>Some apps or programs are better in one device compared to others (i.e. Microsoft Office is much better on PC than on smartphone)</v>
       </c>
     </row>
-    <row r="31" spans="1:38" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:38" ht="17.850000000000001" customHeight="1">
       <c r="A31" t="str">
         <f>RAW!A31</f>
         <v>P31</v>
@@ -36413,7 +36413,7 @@
         <v>When working around the hours and watching out for the kids, I don't physically move my devices as it is uncomfortable so I'm trying to do everything from one device that I take with me around the house.</v>
       </c>
     </row>
-    <row r="32" spans="1:38" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:38" ht="17.850000000000001" customHeight="1">
       <c r="A32" t="str">
         <f>RAW!A32</f>
         <v>P32</v>
@@ -36568,7 +36568,7 @@
         <v>TV is TV, just enjoy what's on.</v>
       </c>
     </row>
-    <row r="33" spans="1:38" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:38" ht="17.850000000000001" customHeight="1">
       <c r="A33" t="str">
         <f>RAW!A33</f>
         <v>P33</v>
@@ -36727,7 +36727,7 @@
 Corporate connection limitations.</v>
       </c>
     </row>
-    <row r="34" spans="1:38" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:38" ht="17.850000000000001" customHeight="1">
       <c r="A34" t="str">
         <f>RAW!A34</f>
         <v>P34</v>
@@ -36888,7 +36888,7 @@
         <v>Devices are ot suitable for environments</v>
       </c>
     </row>
-    <row r="35" spans="1:38" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:38" ht="17.850000000000001" customHeight="1">
       <c r="A35" t="str">
         <f>RAW!A35</f>
         <v>P35</v>
@@ -37061,7 +37061,7 @@
         <v>Lack of integration into an existing ecosystem.</v>
       </c>
     </row>
-    <row r="36" spans="1:38" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:38" ht="17.850000000000001" customHeight="1">
       <c r="A36" t="str">
         <f>RAW!A36</f>
         <v>P36</v>
@@ -37234,7 +37234,7 @@
         <v xml:space="preserve">Focus and clarity. Nothing beats sitting at the Office desk location, with a large monitor and perfect keyboard. It is the most productive for demanding tasks and so far none of the other options can match it. Primary examples are heavy productivity for Powerpoint/Presentations, Video production and editing. </v>
       </c>
     </row>
-    <row r="37" spans="1:38" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:38" ht="17.850000000000001" customHeight="1">
       <c r="A37" t="str">
         <f>RAW!A37</f>
         <v>P37</v>
@@ -37382,7 +37382,7 @@
         <v>My wife will see me have 5 different screens going  and freak out.  It can be overwhelming and seems like overkill at times.</v>
       </c>
     </row>
-    <row r="38" spans="1:38" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:38" ht="17.850000000000001" customHeight="1">
       <c r="A38" t="str">
         <f>RAW!A38</f>
         <v>P38</v>
@@ -37531,7 +37531,7 @@
         <v>Focused concentration</v>
       </c>
     </row>
-    <row r="39" spans="1:38" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:38" ht="17.850000000000001" customHeight="1">
       <c r="A39" t="str">
         <f>RAW!A39</f>
         <v>P39</v>
@@ -37705,7 +37705,7 @@
         <v>Some activities require singular focus. In such a case, it is better to use just a single device, or a single screen. (example, a conf call where I only need to speak and respond, i will connect my earbuds to my phone and walk around while i talk)</v>
       </c>
     </row>
-    <row r="40" spans="1:38" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:38" ht="17.850000000000001" customHeight="1">
       <c r="A40" t="str">
         <f>RAW!A40</f>
         <v>P40</v>
@@ -37851,7 +37851,7 @@
         <v>For some activities including editing videos, I do not want to use multiple devices like my iPad as I could lose focus and I cannot keep track on the changes to my videos. The iPad can also be a distracting device, similar to phones like my iPhone, as it can also receive push notifications from apps that I have installed on my iPad.</v>
       </c>
     </row>
-    <row r="41" spans="1:38" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:38" ht="17.850000000000001" customHeight="1">
       <c r="A41" t="str">
         <f>RAW!A41</f>
         <v>P41</v>
@@ -37996,7 +37996,7 @@
         <v xml:space="preserve">my primary set up has a proprietary program for managing the procurement side of my interior design business, and I have only one user slot for that program.  </v>
       </c>
     </row>
-    <row r="42" spans="1:38" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:38" ht="17.850000000000001" customHeight="1">
       <c r="A42" t="str">
         <f>RAW!A42</f>
         <v>P42</v>
@@ -38099,7 +38099,7 @@
         <v>They do not support interacting with each other due to having content designed only for that platform.</v>
       </c>
     </row>
-    <row r="43" spans="1:38" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:38" ht="17.850000000000001" customHeight="1">
       <c r="A43" t="str">
         <f>RAW!A43</f>
         <v>P43</v>
@@ -38197,7 +38197,7 @@
         <v>I know some people like using their phones when watching television but I am terrible at &amp; do not enjoy this kind of multitasking.</v>
       </c>
     </row>
-    <row r="44" spans="1:38" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:38" ht="17.850000000000001" customHeight="1">
       <c r="A44" t="str">
         <f>RAW!A44</f>
         <v>P44</v>
@@ -38296,7 +38296,7 @@
         <v>Keeping some configs &amp; credentials localized, dedicated devices for certain apps which do not sync well</v>
       </c>
     </row>
-    <row r="45" spans="1:38" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:38" ht="17.850000000000001" customHeight="1">
       <c r="A45" t="str">
         <f>RAW!A45</f>
         <v>P45</v>
@@ -38404,7 +38404,7 @@
 There are tasks that I can or may perform only through customer-supplied devices.</v>
       </c>
     </row>
-    <row r="46" spans="1:38" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:38" ht="17.850000000000001" customHeight="1">
       <c r="A46" t="str">
         <f>RAW!A46</f>
         <v>P46</v>
@@ -38493,7 +38493,7 @@
         <v xml:space="preserve">Because I don't need to. </v>
       </c>
     </row>
-    <row r="47" spans="1:38" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:38" ht="17.850000000000001" customHeight="1">
       <c r="A47" t="str">
         <f>RAW!A47</f>
         <v>P47</v>
@@ -38602,7 +38602,7 @@
         <v>I don't really use my phone for spreadsheets, unless I'm looking up a number or something. So I use desktop Excel for that. Same is true with reading diagrams, or complex pages.</v>
       </c>
     </row>
-    <row r="48" spans="1:38" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:38" ht="17.850000000000001" customHeight="1">
       <c r="A48" t="str">
         <f>RAW!A48</f>
         <v>P48</v>
@@ -38697,7 +38697,7 @@
         <v xml:space="preserve">I don't want to look like I'm not paying attention. </v>
       </c>
     </row>
-    <row r="49" spans="1:38" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:38" ht="17.850000000000001" customHeight="1">
       <c r="A49" t="str">
         <f>RAW!A49</f>
         <v>P49</v>
@@ -38796,7 +38796,7 @@
         <v xml:space="preserve">None </v>
       </c>
     </row>
-    <row r="50" spans="1:38" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:38" ht="17.850000000000001" customHeight="1">
       <c r="A50" t="str">
         <f>RAW!A50</f>
         <v>P50</v>
@@ -38914,7 +38914,7 @@
 Sometimes you are not multitasking.</v>
       </c>
     </row>
-    <row r="51" spans="1:38" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:38" ht="17.850000000000001" customHeight="1">
       <c r="A51" t="str">
         <f>RAW!A51</f>
         <v>P51</v>
@@ -39014,7 +39014,7 @@
         <v>Screen size, OS or slow processor</v>
       </c>
     </row>
-    <row r="52" spans="1:38" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:38" ht="17.850000000000001" customHeight="1">
       <c r="A52" t="str">
         <f>RAW!A52</f>
         <v>P52</v>
@@ -39110,7 +39110,7 @@
         <v>Data isolation (eg only one machine sees tax records)</v>
       </c>
     </row>
-    <row r="53" spans="1:38" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:38" ht="17.850000000000001" customHeight="1">
       <c r="A53" t="str">
         <f>RAW!A53</f>
         <v>P53</v>
@@ -39211,7 +39211,7 @@
         <v xml:space="preserve">Keep it simple </v>
       </c>
     </row>
-    <row r="54" spans="1:38" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:38" ht="17.850000000000001" customHeight="1">
       <c r="A54" t="str">
         <f>RAW!A54</f>
         <v>P54</v>
@@ -39307,7 +39307,7 @@
         <v xml:space="preserve">When concentrating on work try to block out distractions </v>
       </c>
     </row>
-    <row r="55" spans="1:38" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:38" ht="17.850000000000001" customHeight="1">
       <c r="A55" t="str">
         <f>RAW!A55</f>
         <v>P55</v>
@@ -39411,7 +39411,7 @@
         <v xml:space="preserve">Sometimes I need to cut back on multitasking a really focus on one thing. </v>
       </c>
     </row>
-    <row r="56" spans="1:38" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:38" ht="17.850000000000001" customHeight="1">
       <c r="A56" t="str">
         <f>RAW!A56</f>
         <v>P56</v>
@@ -39501,7 +39501,7 @@
         <v xml:space="preserve">Complexity. </v>
       </c>
     </row>
-    <row r="57" spans="1:38" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:38" ht="17.850000000000001" customHeight="1">
       <c r="A57" t="str">
         <f>RAW!A57</f>
         <v>P57</v>
@@ -39591,7 +39591,7 @@
         <v xml:space="preserve">The only time I’m using one device is while talking on a phone call on my iPhone or answering teams messaging on my iPhone, usually while outside. In home office I’m always using iPad phone and at least one desktop computer surface for office work and Mac boom pro for creative adobe work. </v>
       </c>
     </row>
-    <row r="58" spans="1:38" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:38" ht="17.850000000000001" customHeight="1">
       <c r="A58" t="str">
         <f>RAW!A58</f>
         <v>P58</v>
@@ -39732,7 +39732,7 @@
         <v>Simplicity and hassle. Sometimes it's just too much of an effort and it's easier to use whatever you have closest</v>
       </c>
     </row>
-    <row r="59" spans="1:38" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:38" ht="17.850000000000001" customHeight="1">
       <c r="A59" t="str">
         <f>RAW!A59</f>
         <v>P59</v>
@@ -39857,7 +39857,7 @@
         <v xml:space="preserve">Software or physical Layout  and Setup is hard. </v>
       </c>
     </row>
-    <row r="60" spans="1:38" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:38" ht="17.850000000000001" customHeight="1">
       <c r="A60" t="str">
         <f>RAW!A60</f>
         <v>P60</v>
@@ -39958,7 +39958,7 @@
 </v>
       </c>
     </row>
-    <row r="61" spans="1:38" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:38" ht="17.850000000000001" customHeight="1">
       <c r="A61" t="str">
         <f>RAW!A61</f>
         <v>P61</v>
@@ -40051,7 +40051,7 @@
         <v xml:space="preserve">Lack of was space. </v>
       </c>
     </row>
-    <row r="62" spans="1:38" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:38" ht="17.850000000000001" customHeight="1">
       <c r="A62" t="str">
         <f>RAW!A62</f>
         <v>P62</v>
@@ -40158,7 +40158,7 @@
         <v>I can’t do anything else on the Switches but play games.</v>
       </c>
     </row>
-    <row r="63" spans="1:38" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:38" ht="17.850000000000001" customHeight="1">
       <c r="A63" t="str">
         <f>RAW!A63</f>
         <v>P63</v>
@@ -40261,7 +40261,7 @@
 Web runs on everything</v>
       </c>
     </row>
-    <row r="64" spans="1:38" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:38" ht="17.850000000000001" customHeight="1">
       <c r="A64" t="str">
         <f>RAW!A64</f>
         <v>P64</v>
@@ -40356,7 +40356,7 @@
         <v>Managing them</v>
       </c>
     </row>
-    <row r="65" spans="1:38" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:38" ht="17.850000000000001" customHeight="1">
       <c r="A65" t="str">
         <f>RAW!A65</f>
         <v>P65</v>
@@ -40448,7 +40448,7 @@
         <v xml:space="preserve">Habits. </v>
       </c>
     </row>
-    <row r="66" spans="1:38" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:38" ht="17.850000000000001" customHeight="1">
       <c r="A66" t="str">
         <f>RAW!A66</f>
         <v>P66</v>
@@ -40543,7 +40543,7 @@
         <v>Takes time</v>
       </c>
     </row>
-    <row r="67" spans="1:38" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:38" ht="17.850000000000001" customHeight="1">
       <c r="A67" t="str">
         <f>RAW!A67</f>
         <v>P67</v>
@@ -40643,7 +40643,7 @@
         <v>some don't work well together</v>
       </c>
     </row>
-    <row r="68" spans="1:38" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:38" ht="17.850000000000001" customHeight="1">
       <c r="A68" t="str">
         <f>RAW!A68</f>
         <v>P68</v>
@@ -40730,7 +40730,7 @@
         <v>Some operations just require the big screens</v>
       </c>
     </row>
-    <row r="69" spans="1:38" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:38" ht="17.850000000000001" customHeight="1">
       <c r="A69" t="str">
         <f>RAW!A69</f>
         <v>P69</v>
@@ -40844,7 +40844,7 @@
         <v>Lack of integrated sync - sometimes (especially cross-platform between phones and Win10 devices), it's easier just to finish consuming content on a fixed device, as trying to share/move content to another device is just too clunky.</v>
       </c>
     </row>
-    <row r="70" spans="1:38" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:38" ht="17.850000000000001" customHeight="1">
       <c r="A70" t="str">
         <f>RAW!A70</f>
         <v>P70</v>
@@ -40971,7 +40971,7 @@
         <v>Usually because the software for it isn't there. Like the everything should be a monitor when I want it problem.</v>
       </c>
     </row>
-    <row r="71" spans="1:38" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:38" ht="17.850000000000001" customHeight="1">
       <c r="A71" t="str">
         <f>RAW!A71</f>
         <v>P71</v>
@@ -41063,7 +41063,7 @@
         <v>Easy to just stick with one despite not having everything I need at that moment</v>
       </c>
     </row>
-    <row r="72" spans="1:38" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:38" ht="17.850000000000001" customHeight="1">
       <c r="A72" t="str">
         <f>RAW!A72</f>
         <v>P72</v>
@@ -41192,7 +41192,7 @@
         <v>Keeping content in sync between them</v>
       </c>
     </row>
-    <row r="73" spans="1:38" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:38" ht="17.850000000000001" customHeight="1">
       <c r="A73" t="str">
         <f>RAW!A73</f>
         <v>P73</v>
@@ -41286,7 +41286,7 @@
         <v>The hassle of moving data, environments around.</v>
       </c>
     </row>
-    <row r="74" spans="1:38" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:38" ht="17.850000000000001" customHeight="1">
       <c r="A74" t="str">
         <f>RAW!A74</f>
         <v>P74</v>
@@ -41375,7 +41375,7 @@
         <v>i blame you for this</v>
       </c>
     </row>
-    <row r="75" spans="1:38" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:38" ht="17.850000000000001" customHeight="1">
       <c r="A75" t="str">
         <f>RAW!A75</f>
         <v>P75</v>
@@ -41487,7 +41487,7 @@
         <v>If mobile, just my phone. Not a lot of use for spreading mobile activities to wrists, etc, when I have to pull out my phone for 90% of things anyways.</v>
       </c>
     </row>
-    <row r="76" spans="1:38" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:38" ht="17.850000000000001" customHeight="1">
       <c r="A76" t="str">
         <f>RAW!A76</f>
         <v>P76</v>
@@ -41604,7 +41604,7 @@
 Simplicity. Sometimes just one device does what I need it to do. The Android Smart TV, for instance, has the capabilities to stream Netflix and some movies. </v>
       </c>
     </row>
-    <row r="77" spans="1:38" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:38" ht="17.850000000000001" customHeight="1">
       <c r="A77" t="str">
         <f>RAW!A77</f>
         <v>P77</v>
@@ -41722,7 +41722,7 @@
         <v>context switching is annoying. having to log in to another device. the threat of losing all the context you have built up in one device. being too lazy to put in the 30 seconds necessary to get a better experience when the current experience is adequate.</v>
       </c>
     </row>
-    <row r="78" spans="1:38" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:38" ht="17.850000000000001" customHeight="1">
       <c r="A78" t="str">
         <f>RAW!A78</f>
         <v>P78</v>
@@ -41834,7 +41834,7 @@
         <v>Echoing previous answers, I would do virtually everything on multiple devices if I had personal application omnipresence.  But I do not, so applications are always tied to each device.  So there's a lot of friction to switching between devices.  All devices have a bad habit of seeing themselves as primary.</v>
       </c>
     </row>
-    <row r="79" spans="1:38" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:38" ht="17.850000000000001" customHeight="1">
       <c r="A79" t="str">
         <f>RAW!A79</f>
         <v>P79</v>
@@ -41932,7 +41932,7 @@
         <v>When mobile - juggling more than one device is impractical, other than wearables.</v>
       </c>
     </row>
-    <row r="80" spans="1:38" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:38" ht="17.850000000000001" customHeight="1">
       <c r="A80" t="str">
         <f>RAW!A80</f>
         <v>P80</v>
@@ -42020,7 +42020,7 @@
         <v xml:space="preserve">If I don't have too, I can do most things from my laptop. </v>
       </c>
     </row>
-    <row r="81" spans="1:38" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:38" ht="17.850000000000001" customHeight="1">
       <c r="A81" t="str">
         <f>RAW!A81</f>
         <v>P81</v>
@@ -42120,7 +42120,7 @@
         <v>My PC is the fastest with two monitors, direct LAN, the most memory, etc</v>
       </c>
     </row>
-    <row r="82" spans="1:38" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:38" ht="17.850000000000001" customHeight="1">
       <c r="A82" t="str">
         <f>RAW!A82</f>
         <v>P82</v>
@@ -42217,7 +42217,7 @@
         <v>Often has issues synchronizing data, whether latency or just missing data entirely</v>
       </c>
     </row>
-    <row r="83" spans="1:38" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:38" ht="17.850000000000001" customHeight="1">
       <c r="A83" t="str">
         <f>RAW!A83</f>
         <v>P83</v>
@@ -42364,7 +42364,7 @@
         <v xml:space="preserve">Because, the software is only installed on one device or only supports mobile, or only supports full computers. Like my photo editing software is only on a laptop. </v>
       </c>
     </row>
-    <row r="84" spans="1:38" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:38" ht="17.850000000000001" customHeight="1">
       <c r="A84" t="str">
         <f>RAW!A84</f>
         <v>P84</v>
@@ -42462,7 +42462,7 @@
         <v>Research and writing are on one device. Cloud services allow me to move to another computer, but I still work on one device when writing/researching.</v>
       </c>
     </row>
-    <row r="85" spans="1:38" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:38" ht="17.850000000000001" customHeight="1">
       <c r="A85" t="str">
         <f>RAW!A85</f>
         <v>P85</v>
@@ -42544,7 +42544,7 @@
         <v xml:space="preserve">Some activities don’t require multiple devices </v>
       </c>
     </row>
-    <row r="86" spans="1:38" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:38" ht="17.850000000000001" customHeight="1">
       <c r="A86" t="str">
         <f>RAW!A86</f>
         <v>P86</v>
@@ -42637,7 +42637,7 @@
         <v xml:space="preserve">It is distracting and disruptive. There are some devices such as my iPad that have the ability to be work/play devices a little too effectively for me </v>
       </c>
     </row>
-    <row r="87" spans="1:38" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:38" ht="17.850000000000001" customHeight="1">
       <c r="A87" t="str">
         <f>RAW!A87</f>
         <v>P87</v>
@@ -42757,7 +42757,7 @@
         <v>For entertainment, we mostly just use the TV. It has everything we need from that aspect.</v>
       </c>
     </row>
-    <row r="88" spans="1:38" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:38" ht="17.850000000000001" customHeight="1">
       <c r="A88" t="str">
         <f>RAW!A88</f>
         <v>P88</v>
@@ -42851,7 +42851,7 @@
         <v>Because it is inconvenient and because it is more trouble that it is worth.</v>
       </c>
     </row>
-    <row r="89" spans="1:38" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:38" ht="17.850000000000001" customHeight="1">
       <c r="A89" t="str">
         <f>RAW!A89</f>
         <v>P89</v>
@@ -42938,7 +42938,7 @@
         <v>there are very few activities that I don't use multiple devices for... maybe paper writing? Even then, I might check and respond to comments using my phone.</v>
       </c>
     </row>
-    <row r="90" spans="1:38" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:38" ht="17.850000000000001" customHeight="1">
       <c r="A90" t="str">
         <f>RAW!A90</f>
         <v>P90</v>
@@ -43048,7 +43048,7 @@
         <v>Using multiple devices at the same time is difficult and thus if it can be done easier with a single device, I will do that</v>
       </c>
     </row>
-    <row r="91" spans="1:38" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:38" ht="17.850000000000001" customHeight="1">
       <c r="A91" t="str">
         <f>RAW!A91</f>
         <v>P91</v>
@@ -43158,7 +43158,7 @@
         <v>??</v>
       </c>
     </row>
-    <row r="92" spans="1:38" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:38" ht="17.850000000000001" customHeight="1">
       <c r="A92" t="str">
         <f>RAW!A92</f>
         <v>P92</v>
@@ -43261,7 +43261,7 @@
         <v>Devices need power and require constant repositioning.  Fixed position devices dont do what I want</v>
       </c>
     </row>
-    <row r="93" spans="1:38" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:38" ht="17.850000000000001" customHeight="1">
       <c r="A93" t="str">
         <f>RAW!A93</f>
         <v>P93</v>
@@ -43361,7 +43361,7 @@
         <v>Too difficult to lose concentration depending on the task. I find it nearly impossible to write important documents while doing anything else because it requires focus.</v>
       </c>
     </row>
-    <row r="94" spans="1:38" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:38" ht="17.850000000000001" customHeight="1">
       <c r="A94" t="str">
         <f>RAW!A94</f>
         <v>P94</v>
@@ -43473,7 +43473,7 @@
         <v xml:space="preserve">I do not have any examples of this. </v>
       </c>
     </row>
-    <row r="95" spans="1:38" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:38" ht="17.850000000000001" customHeight="1">
       <c r="A95" t="str">
         <f>RAW!A95</f>
         <v>P95</v>
@@ -43575,7 +43575,7 @@
         <v xml:space="preserve">I don't use multiple devices when I need the tasks that I'm doing to interoperate well - moving artifacts across devices it usually on the spectrum of arduous to impossible. </v>
       </c>
     </row>
-    <row r="96" spans="1:38" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:38" ht="17.850000000000001" customHeight="1">
       <c r="A96" t="str">
         <f>RAW!A96</f>
         <v>P96</v>
@@ -43679,7 +43679,7 @@
         <v>Intrinsic cohesiveness and separation between work and personal tasks.</v>
       </c>
     </row>
-    <row r="97" spans="1:38" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:38" ht="17.850000000000001" customHeight="1">
       <c r="A97" t="str">
         <f>RAW!A97</f>
         <v>P97</v>
@@ -43778,7 +43778,7 @@
         <v>For corporate work, much of what I need to accomplish is handled on my Windows PC that is running Remote Desktop Client app and connecting to Windows Virtual Desktop</v>
       </c>
     </row>
-    <row r="98" spans="1:38" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:38" ht="17.850000000000001" customHeight="1">
       <c r="A98" t="str">
         <f>RAW!A98</f>
         <v>P98</v>
@@ -43877,7 +43877,7 @@
         <v>If I am working away from my table - I cannot take advantage of multiple devices set up.</v>
       </c>
     </row>
-    <row r="99" spans="1:38" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:38" ht="17.850000000000001" customHeight="1">
       <c r="A99" t="str">
         <f>RAW!A99</f>
         <v>P99</v>
@@ -43969,13 +43969,13 @@
         <v>Don't have enough space or one device could fit all my needs</v>
       </c>
     </row>
-    <row r="100" spans="1:38" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:38" ht="17.850000000000001" customHeight="1">
       <c r="K100" s="3">
         <f>RAW!AM100</f>
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:38" ht="17.850000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:38" ht="17.850000000000001" customHeight="1">
       <c r="K101" s="3">
         <f>RAW!AM101</f>
         <v>0</v>
@@ -43996,7 +43996,7 @@
       <selection pane="bottomLeft" activeCell="G99" sqref="G99"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="8.7109375"/>
     <col min="2" max="3" width="14" customWidth="1"/>
@@ -44079,7 +44079,7 @@
     <col min="83" max="83" width="44.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:83" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:83">
       <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
@@ -44330,7 +44330,7 @@
         <v>1890</v>
       </c>
     </row>
-    <row r="2" spans="1:83" s="26" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:83" s="26" customFormat="1" ht="15.75" thickBot="1">
       <c r="B2" s="26" t="s">
         <v>1891</v>
       </c>
@@ -44578,7 +44578,7 @@
         <v>1890</v>
       </c>
     </row>
-    <row r="3" spans="1:83" ht="90" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:83" ht="90">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -44829,7 +44829,7 @@
         <v>1941</v>
       </c>
     </row>
-    <row r="4" spans="1:83" ht="105" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:83" ht="105">
       <c r="A4" t="s">
         <v>25</v>
       </c>
@@ -45080,7 +45080,7 @@
         <v>1944</v>
       </c>
     </row>
-    <row r="5" spans="1:83" ht="165" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:83" ht="165">
       <c r="A5" t="s">
         <v>32</v>
       </c>
@@ -45331,7 +45331,7 @@
         <v>1941</v>
       </c>
     </row>
-    <row r="6" spans="1:83" ht="90" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:83" ht="90">
       <c r="A6" t="s">
         <v>39</v>
       </c>
@@ -45582,7 +45582,7 @@
         <v>1941</v>
       </c>
     </row>
-    <row r="7" spans="1:83" ht="105" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:83" ht="105">
       <c r="A7" t="s">
         <v>46</v>
       </c>
@@ -45833,7 +45833,7 @@
         <v>1941</v>
       </c>
     </row>
-    <row r="8" spans="1:83" ht="135" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:83" ht="135">
       <c r="A8" t="s">
         <v>51</v>
       </c>
@@ -46084,7 +46084,7 @@
         <v>1941</v>
       </c>
     </row>
-    <row r="9" spans="1:83" ht="75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:83" ht="75">
       <c r="A9" t="s">
         <v>55</v>
       </c>
@@ -46335,7 +46335,7 @@
         <v>1941</v>
       </c>
     </row>
-    <row r="10" spans="1:83" ht="315" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:83" ht="315">
       <c r="A10" t="s">
         <v>59</v>
       </c>
@@ -46586,7 +46586,7 @@
         <v>1941</v>
       </c>
     </row>
-    <row r="11" spans="1:83" ht="60" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:83" ht="60">
       <c r="A11" t="s">
         <v>65</v>
       </c>
@@ -46837,7 +46837,7 @@
         <v>1941</v>
       </c>
     </row>
-    <row r="12" spans="1:83" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:83" ht="45">
       <c r="A12" t="s">
         <v>70</v>
       </c>
@@ -47088,7 +47088,7 @@
         <v>1941</v>
       </c>
     </row>
-    <row r="13" spans="1:83" ht="135" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:83" ht="135">
       <c r="A13" t="s">
         <v>75</v>
       </c>
@@ -47339,7 +47339,7 @@
         <v>1941</v>
       </c>
     </row>
-    <row r="14" spans="1:83" ht="150" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:83" ht="150">
       <c r="A14" t="s">
         <v>80</v>
       </c>
@@ -47590,7 +47590,7 @@
         <v>1941</v>
       </c>
     </row>
-    <row r="15" spans="1:83" ht="75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:83" ht="75">
       <c r="A15" t="s">
         <v>85</v>
       </c>
@@ -47841,7 +47841,7 @@
         <v>1941</v>
       </c>
     </row>
-    <row r="16" spans="1:83" ht="120" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:83" ht="120">
       <c r="A16" t="s">
         <v>89</v>
       </c>
@@ -48092,7 +48092,7 @@
         <v>1941</v>
       </c>
     </row>
-    <row r="17" spans="1:83" ht="60" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:83" ht="60">
       <c r="A17" t="s">
         <v>93</v>
       </c>
@@ -48343,7 +48343,7 @@
         <v>1941</v>
       </c>
     </row>
-    <row r="18" spans="1:83" ht="45" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:83" ht="45">
       <c r="A18" t="s">
         <v>97</v>
       </c>
@@ -48594,7 +48594,7 @@
         <v>1941</v>
       </c>
     </row>
-    <row r="19" spans="1:83" ht="90" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:83" ht="90">
       <c r="A19" t="s">
         <v>102</v>
       </c>
@@ -48845,7 +48845,7 @@
         <v>1941</v>
       </c>
     </row>
-    <row r="20" spans="1:83" ht="135" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:83" ht="135">
       <c r="A20" t="s">
         <v>106</v>
       </c>
@@ -49096,7 +49096,7 @@
         <v>1941</v>
       </c>
     </row>
-    <row r="21" spans="1:83" ht="105" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:83" ht="105">
       <c r="A21" t="s">
         <v>110</v>
       </c>
@@ -49347,7 +49347,7 @@
         <v>1941</v>
       </c>
     </row>
-    <row r="22" spans="1:83" ht="60" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:83" ht="60">
       <c r="A22" t="s">
         <v>114</v>
       </c>
@@ -49598,7 +49598,7 @@
         <v>1941</v>
       </c>
     </row>
-    <row r="23" spans="1:83" ht="150" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:83" ht="150">
       <c r="A23" t="s">
         <v>118</v>
       </c>
@@ -49849,7 +49849,7 @@
         <v>1941</v>
       </c>
     </row>
-    <row r="24" spans="1:83" ht="165" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:83" ht="165">
       <c r="A24" t="s">
         <v>122</v>
       </c>
@@ -50100,7 +50100,7 @@
         <v>1941</v>
       </c>
     </row>
-    <row r="25" spans="1:83" ht="135" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:83" ht="135">
       <c r="A25" t="s">
         <v>126</v>
       </c>
@@ -50351,7 +50351,7 @@
         <v>1941</v>
       </c>
     </row>
-    <row r="26" spans="1:83" ht="105" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:83" ht="105">
       <c r="A26" t="s">
         <v>130</v>
       </c>
@@ -50602,7 +50602,7 @@
         <v>1941</v>
       </c>
     </row>
-    <row r="27" spans="1:83" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:83" ht="30">
       <c r="A27" t="s">
         <v>135</v>
       </c>
@@ -50853,7 +50853,7 @@
         <v>2031</v>
       </c>
     </row>
-    <row r="28" spans="1:83" ht="60" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:83" ht="60">
       <c r="A28" t="s">
         <v>139</v>
       </c>
@@ -51104,7 +51104,7 @@
         <v>1941</v>
       </c>
     </row>
-    <row r="29" spans="1:83" ht="135" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:83" ht="135">
       <c r="A29" t="s">
         <v>142</v>
       </c>
@@ -51355,7 +51355,7 @@
         <v>2036</v>
       </c>
     </row>
-    <row r="30" spans="1:83" ht="75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:83" ht="75">
       <c r="A30" t="s">
         <v>146</v>
       </c>
@@ -51606,7 +51606,7 @@
         <v>2039</v>
       </c>
     </row>
-    <row r="31" spans="1:83" ht="60" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:83" ht="60">
       <c r="A31" t="s">
         <v>150</v>
       </c>
@@ -51857,7 +51857,7 @@
         <v>1941</v>
       </c>
     </row>
-    <row r="32" spans="1:83" ht="135" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:83" ht="135">
       <c r="A32" t="s">
         <v>154</v>
       </c>
@@ -52108,7 +52108,7 @@
         <v>1941</v>
       </c>
     </row>
-    <row r="33" spans="1:83" ht="105" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:83" ht="105">
       <c r="A33" t="s">
         <v>159</v>
       </c>
@@ -52359,7 +52359,7 @@
         <v>1941</v>
       </c>
     </row>
-    <row r="34" spans="1:83" ht="255" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:83" ht="255">
       <c r="A34" t="s">
         <v>163</v>
       </c>
@@ -52610,7 +52610,7 @@
         <v>1941</v>
       </c>
     </row>
-    <row r="35" spans="1:83" ht="270" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:83" ht="270">
       <c r="A35" t="s">
         <v>167</v>
       </c>
@@ -52861,7 +52861,7 @@
         <v>1941</v>
       </c>
     </row>
-    <row r="36" spans="1:83" ht="270" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:83" ht="270">
       <c r="A36" t="s">
         <v>171</v>
       </c>
@@ -53112,7 +53112,7 @@
         <v>1941</v>
       </c>
     </row>
-    <row r="37" spans="1:83" ht="75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:83" ht="75">
       <c r="A37" t="s">
         <v>175</v>
       </c>
@@ -53363,7 +53363,7 @@
         <v>1941</v>
       </c>
     </row>
-    <row r="38" spans="1:83" ht="150" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:83" ht="150">
       <c r="A38" t="s">
         <v>179</v>
       </c>
@@ -53614,7 +53614,7 @@
         <v>1941</v>
       </c>
     </row>
-    <row r="39" spans="1:83" ht="195" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:83" ht="195">
       <c r="A39" t="s">
         <v>184</v>
       </c>
@@ -53865,7 +53865,7 @@
         <v>1941</v>
       </c>
     </row>
-    <row r="40" spans="1:83" ht="75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:83" ht="75">
       <c r="A40" t="s">
         <v>188</v>
       </c>
@@ -54116,7 +54116,7 @@
         <v>1941</v>
       </c>
     </row>
-    <row r="41" spans="1:83" ht="120" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:83" ht="120">
       <c r="A41" t="s">
         <v>191</v>
       </c>
@@ -54367,7 +54367,7 @@
         <v>1941</v>
       </c>
     </row>
-    <row r="42" spans="1:83" ht="165" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:83" ht="165">
       <c r="A42" t="s">
         <v>195</v>
       </c>
@@ -54618,7 +54618,7 @@
         <v>1941</v>
       </c>
     </row>
-    <row r="43" spans="1:83" ht="165" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:83" ht="165">
       <c r="A43" t="s">
         <v>199</v>
       </c>
@@ -54869,7 +54869,7 @@
         <v>2036</v>
       </c>
     </row>
-    <row r="44" spans="1:83" ht="165" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:83" ht="165">
       <c r="A44" t="s">
         <v>203</v>
       </c>
@@ -55120,7 +55120,7 @@
         <v>1941</v>
       </c>
     </row>
-    <row r="45" spans="1:83" ht="135" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:83" ht="135">
       <c r="A45" t="s">
         <v>207</v>
       </c>
@@ -55371,7 +55371,7 @@
         <v>1941</v>
       </c>
     </row>
-    <row r="46" spans="1:83" ht="90" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:83" ht="90">
       <c r="A46" t="s">
         <v>211</v>
       </c>
@@ -55622,7 +55622,7 @@
         <v>1941</v>
       </c>
     </row>
-    <row r="47" spans="1:83" ht="105" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:83" ht="105">
       <c r="A47" t="s">
         <v>215</v>
       </c>
@@ -55873,7 +55873,7 @@
         <v>1941</v>
       </c>
     </row>
-    <row r="48" spans="1:83" ht="120" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:83" ht="120">
       <c r="A48" t="s">
         <v>219</v>
       </c>
@@ -56124,7 +56124,7 @@
         <v>1941</v>
       </c>
     </row>
-    <row r="49" spans="1:83" ht="135" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:83" ht="135">
       <c r="A49" t="s">
         <v>223</v>
       </c>
@@ -56375,7 +56375,7 @@
         <v>1941</v>
       </c>
     </row>
-    <row r="50" spans="1:83" ht="195" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:83" ht="195">
       <c r="A50" t="s">
         <v>227</v>
       </c>
@@ -56626,7 +56626,7 @@
         <v>2127</v>
       </c>
     </row>
-    <row r="51" spans="1:83" ht="150" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:83" ht="150">
       <c r="A51" t="s">
         <v>231</v>
       </c>
@@ -56877,7 +56877,7 @@
         <v>1941</v>
       </c>
     </row>
-    <row r="52" spans="1:83" ht="225" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:83" ht="225">
       <c r="A52" t="s">
         <v>235</v>
       </c>
@@ -57128,7 +57128,7 @@
         <v>1941</v>
       </c>
     </row>
-    <row r="53" spans="1:83" ht="180" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:83" ht="180">
       <c r="A53" t="s">
         <v>239</v>
       </c>
@@ -57379,7 +57379,7 @@
         <v>1941</v>
       </c>
     </row>
-    <row r="54" spans="1:83" ht="90" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:83" ht="90">
       <c r="A54" t="s">
         <v>243</v>
       </c>
@@ -57630,7 +57630,7 @@
         <v>1941</v>
       </c>
     </row>
-    <row r="55" spans="1:83" ht="180" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:83" ht="180">
       <c r="A55" t="s">
         <v>247</v>
       </c>
@@ -57881,7 +57881,7 @@
         <v>1941</v>
       </c>
     </row>
-    <row r="56" spans="1:83" ht="105" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:83" ht="105">
       <c r="A56" t="s">
         <v>251</v>
       </c>
@@ -58132,7 +58132,7 @@
         <v>1941</v>
       </c>
     </row>
-    <row r="57" spans="1:83" ht="165" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:83" ht="165">
       <c r="A57" t="s">
         <v>255</v>
       </c>
@@ -58383,7 +58383,7 @@
         <v>1941</v>
       </c>
     </row>
-    <row r="58" spans="1:83" ht="270" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:83" ht="270">
       <c r="A58" t="s">
         <v>259</v>
       </c>
@@ -58634,7 +58634,7 @@
         <v>1941</v>
       </c>
     </row>
-    <row r="59" spans="1:83" ht="390" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:83" ht="390">
       <c r="A59" t="s">
         <v>263</v>
       </c>
@@ -58885,7 +58885,7 @@
         <v>1941</v>
       </c>
     </row>
-    <row r="60" spans="1:83" ht="225" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:83" ht="225">
       <c r="A60" t="s">
         <v>267</v>
       </c>
@@ -59136,7 +59136,7 @@
         <v>1941</v>
       </c>
     </row>
-    <row r="61" spans="1:83" ht="150" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:83" ht="150">
       <c r="A61" t="s">
         <v>271</v>
       </c>
@@ -59387,7 +59387,7 @@
         <v>1941</v>
       </c>
     </row>
-    <row r="62" spans="1:83" ht="225" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:83" ht="225">
       <c r="A62" t="s">
         <v>275</v>
       </c>
@@ -59638,7 +59638,7 @@
         <v>1941</v>
       </c>
     </row>
-    <row r="63" spans="1:83" ht="240" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:83" ht="240">
       <c r="A63" t="s">
         <v>278</v>
       </c>
@@ -59889,7 +59889,7 @@
         <v>1941</v>
       </c>
     </row>
-    <row r="64" spans="1:83" ht="105" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:83" ht="105">
       <c r="A64" t="s">
         <v>281</v>
       </c>
@@ -60140,7 +60140,7 @@
         <v>1941</v>
       </c>
     </row>
-    <row r="65" spans="1:83" ht="120" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:83" ht="120">
       <c r="A65" t="s">
         <v>284</v>
       </c>
@@ -60391,7 +60391,7 @@
         <v>1941</v>
       </c>
     </row>
-    <row r="66" spans="1:83" ht="105" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:83" ht="105">
       <c r="A66" t="s">
         <v>288</v>
       </c>
@@ -60642,7 +60642,7 @@
         <v>1941</v>
       </c>
     </row>
-    <row r="67" spans="1:83" ht="240" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:83" ht="240">
       <c r="A67" t="s">
         <v>292</v>
       </c>
@@ -60893,7 +60893,7 @@
         <v>1941</v>
       </c>
     </row>
-    <row r="68" spans="1:83" ht="75" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:83" ht="75">
       <c r="A68" t="s">
         <v>297</v>
       </c>
@@ -61144,7 +61144,7 @@
         <v>1941</v>
       </c>
     </row>
-    <row r="69" spans="1:83" ht="120" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:83" ht="120">
       <c r="A69" t="s">
         <v>301</v>
       </c>
@@ -61395,7 +61395,7 @@
         <v>1941</v>
       </c>
     </row>
-    <row r="70" spans="1:83" ht="300" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:83" ht="300">
       <c r="A70" t="s">
         <v>305</v>
       </c>
@@ -61646,7 +61646,7 @@
         <v>1941</v>
       </c>
     </row>
-    <row r="71" spans="1:83" ht="75" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:83" ht="75">
       <c r="A71" t="s">
         <v>309</v>
       </c>
@@ -61897,7 +61897,7 @@
         <v>1941</v>
       </c>
     </row>
-    <row r="72" spans="1:83" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:83" ht="409.5">
       <c r="A72" t="s">
         <v>313</v>
       </c>
@@ -62148,7 +62148,7 @@
         <v>1941</v>
       </c>
     </row>
-    <row r="73" spans="1:83" ht="75" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:83" ht="75">
       <c r="A73" t="s">
         <v>317</v>
       </c>
@@ -62399,7 +62399,7 @@
         <v>1941</v>
       </c>
     </row>
-    <row r="74" spans="1:83" ht="120" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:83" ht="120">
       <c r="A74" t="s">
         <v>321</v>
       </c>
@@ -62650,7 +62650,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="75" spans="1:83" ht="135" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:83" ht="135">
       <c r="A75" t="s">
         <v>324</v>
       </c>
@@ -62901,7 +62901,7 @@
         <v>1941</v>
       </c>
     </row>
-    <row r="76" spans="1:83" ht="225" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:83" ht="225">
       <c r="A76" t="s">
         <v>328</v>
       </c>
@@ -63152,7 +63152,7 @@
         <v>1941</v>
       </c>
     </row>
-    <row r="77" spans="1:83" ht="210" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:83" ht="210">
       <c r="A77" t="s">
         <v>332</v>
       </c>
@@ -63403,7 +63403,7 @@
         <v>1941</v>
       </c>
     </row>
-    <row r="78" spans="1:83" ht="180" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:83" ht="180">
       <c r="A78" t="s">
         <v>336</v>
       </c>
@@ -63654,7 +63654,7 @@
         <v>1941</v>
       </c>
     </row>
-    <row r="79" spans="1:83" ht="165" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:83" ht="165">
       <c r="A79" t="s">
         <v>339</v>
       </c>
@@ -63905,7 +63905,7 @@
         <v>1941</v>
       </c>
     </row>
-    <row r="80" spans="1:83" ht="60" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:83" ht="60">
       <c r="A80" t="s">
         <v>343</v>
       </c>
@@ -64156,7 +64156,7 @@
         <v>2039</v>
       </c>
     </row>
-    <row r="81" spans="1:83" ht="210" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:83" ht="210">
       <c r="A81" t="s">
         <v>347</v>
       </c>
@@ -64407,7 +64407,7 @@
         <v>1941</v>
       </c>
     </row>
-    <row r="82" spans="1:83" ht="150" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:83" ht="150">
       <c r="A82" t="s">
         <v>351</v>
       </c>
@@ -64658,7 +64658,7 @@
         <v>1941</v>
       </c>
     </row>
-    <row r="83" spans="1:83" ht="300" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:83" ht="300">
       <c r="A83" t="s">
         <v>355</v>
       </c>
@@ -64909,7 +64909,7 @@
         <v>1941</v>
       </c>
     </row>
-    <row r="84" spans="1:83" ht="135" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:83" ht="135">
       <c r="A84" t="s">
         <v>359</v>
       </c>
@@ -65160,7 +65160,7 @@
         <v>1941</v>
       </c>
     </row>
-    <row r="85" spans="1:83" ht="30" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:83" ht="30">
       <c r="A85" t="s">
         <v>363</v>
       </c>
@@ -65411,7 +65411,7 @@
         <v>1941</v>
       </c>
     </row>
-    <row r="86" spans="1:83" ht="75" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:83" ht="75">
       <c r="A86" t="s">
         <v>367</v>
       </c>
@@ -65662,7 +65662,7 @@
         <v>1941</v>
       </c>
     </row>
-    <row r="87" spans="1:83" ht="195" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:83" ht="195">
       <c r="A87" t="s">
         <v>371</v>
       </c>
@@ -65913,7 +65913,7 @@
         <v>1941</v>
       </c>
     </row>
-    <row r="88" spans="1:83" ht="90" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:83" ht="90">
       <c r="A88" t="s">
         <v>375</v>
       </c>
@@ -66164,7 +66164,7 @@
         <v>1941</v>
       </c>
     </row>
-    <row r="89" spans="1:83" ht="75" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:83" ht="75">
       <c r="A89" t="s">
         <v>378</v>
       </c>
@@ -66415,7 +66415,7 @@
         <v>1941</v>
       </c>
     </row>
-    <row r="90" spans="1:83" ht="135" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:83" ht="135">
       <c r="A90" t="s">
         <v>382</v>
       </c>
@@ -66666,7 +66666,7 @@
         <v>2036</v>
       </c>
     </row>
-    <row r="91" spans="1:83" ht="210" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:83" ht="210">
       <c r="A91" t="s">
         <v>386</v>
       </c>
@@ -66917,7 +66917,7 @@
         <v>1941</v>
       </c>
     </row>
-    <row r="92" spans="1:83" ht="240" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:83" ht="240">
       <c r="A92" t="s">
         <v>390</v>
       </c>
@@ -67168,7 +67168,7 @@
         <v>1941</v>
       </c>
     </row>
-    <row r="93" spans="1:83" ht="120" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:83" ht="120">
       <c r="A93" t="s">
         <v>394</v>
       </c>
@@ -67419,7 +67419,7 @@
         <v>1941</v>
       </c>
     </row>
-    <row r="94" spans="1:83" ht="120" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:83" ht="120">
       <c r="A94" t="s">
         <v>398</v>
       </c>
@@ -67670,7 +67670,7 @@
         <v>1941</v>
       </c>
     </row>
-    <row r="95" spans="1:83" ht="165" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:83" ht="165">
       <c r="A95" t="s">
         <v>402</v>
       </c>
@@ -67921,7 +67921,7 @@
         <v>1941</v>
       </c>
     </row>
-    <row r="96" spans="1:83" ht="90" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:83" ht="90">
       <c r="A96" t="s">
         <v>406</v>
       </c>
@@ -68172,7 +68172,7 @@
         <v>1941</v>
       </c>
     </row>
-    <row r="97" spans="1:83" ht="90" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:83" ht="90">
       <c r="A97" t="s">
         <v>410</v>
       </c>
@@ -68423,7 +68423,7 @@
         <v>1941</v>
       </c>
     </row>
-    <row r="98" spans="1:83" ht="105" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:83" ht="105">
       <c r="A98" t="s">
         <v>414</v>
       </c>
@@ -68674,7 +68674,7 @@
         <v>1941</v>
       </c>
     </row>
-    <row r="99" spans="1:83" ht="90" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:83" ht="90">
       <c r="A99" t="s">
         <v>418</v>
       </c>
